--- a/legendre_out/CSV/analytically/p1/a2/a2Fit.xlsx
+++ b/legendre_out/CSV/analytically/p1/a2/a2Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D229"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,12 +374,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a0_err</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>a2_err</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Pval</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2NDF</t>
         </is>
       </c>
     </row>
@@ -388,13 +408,25 @@
         <v>3.99602</v>
       </c>
       <c r="B2" t="n">
-        <v>1.629541550473335e-06</v>
+        <v>1.816690617321701e-06</v>
       </c>
       <c r="C2" t="n">
+        <v>2.510088623798232e-06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.418215519299846e-08</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.37057407659653e-07</v>
+      </c>
+      <c r="F2" t="n">
+        <v>176.2138899433837</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.886167510539028e-06</v>
+      <c r="H2" t="n">
+        <v>35.24277798867674</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +434,25 @@
         <v>4.00097</v>
       </c>
       <c r="B3" t="n">
-        <v>2.658731034138368e-06</v>
+        <v>3.053503161505871e-06</v>
       </c>
       <c r="C3" t="n">
+        <v>3.457152742166969e-06</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.195879679534166e-07</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.121777675100134e-07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>159.4644520280027</v>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>3.961294353735883e-06</v>
+      <c r="H3" t="n">
+        <v>31.89289040560054</v>
       </c>
     </row>
     <row r="4">
@@ -416,13 +460,25 @@
         <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>3.645620410171265e-06</v>
+        <v>4.148183584666212e-06</v>
       </c>
       <c r="C4" t="n">
+        <v>-3.035868226324303e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.797432568296714e-07</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.012130244120997e-07</v>
+      </c>
+      <c r="F4" t="n">
+        <v>150.3309381091144</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>-2.800668809652064e-06</v>
+      <c r="H4" t="n">
+        <v>30.06618762182288</v>
       </c>
     </row>
     <row r="5">
@@ -430,13 +486,25 @@
         <v>4.00497</v>
       </c>
       <c r="B5" t="n">
-        <v>5.276203001964082e-06</v>
+        <v>5.707245214819639e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-3.222841483255317e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.24180867691901e-07</v>
+        <v>2.239914235638728e-07</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.344935609616487e-07</v>
+      </c>
+      <c r="F5" t="n">
+        <v>83.11312576064772</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16.62262515212954</v>
       </c>
     </row>
     <row r="6">
@@ -444,13 +512,25 @@
         <v>4.00697</v>
       </c>
       <c r="B6" t="n">
-        <v>5.372865124840789e-06</v>
+        <v>6.053348057402419e-06</v>
       </c>
       <c r="C6" t="n">
+        <v>3.321460264827679e-06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.157281894570227e-07</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.620328181221196e-07</v>
+      </c>
+      <c r="F6" t="n">
+        <v>96.87210904958329</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
-        <v>4.235384483362478e-06</v>
+      <c r="H6" t="n">
+        <v>19.37442180991666</v>
       </c>
     </row>
     <row r="7">
@@ -458,13 +538,25 @@
         <v>4.00909</v>
       </c>
       <c r="B7" t="n">
-        <v>2.41896999443508e-06</v>
+        <v>3.627616948749184e-06</v>
       </c>
       <c r="C7" t="n">
+        <v>1.660990961641037e-06</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.756939325562621e-07</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.578140982353973e-07</v>
+      </c>
+      <c r="F7" t="n">
+        <v>274.4498767766046</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>2.156232473058053e-06</v>
+      <c r="H7" t="n">
+        <v>54.88997535532091</v>
       </c>
     </row>
     <row r="8">
@@ -472,13 +564,25 @@
         <v>4.01003</v>
       </c>
       <c r="B8" t="n">
-        <v>6.405102831498344e-06</v>
+        <v>6.883820466055415e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4.46153676552784e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>6.98838694660134e-07</v>
+        <v>2.719323071900995e-07</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.176297127377171e-07</v>
+      </c>
+      <c r="F8" t="n">
+        <v>81.4074897491483</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.440892098500626e-16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16.28149794982966</v>
       </c>
     </row>
     <row r="9">
@@ -486,13 +590,25 @@
         <v>4.01507</v>
       </c>
       <c r="B9" t="n">
-        <v>4.40880445741942e-06</v>
+        <v>5.022560181815557e-06</v>
       </c>
       <c r="C9" t="n">
+        <v>5.406702966715865e-06</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.761732894449074e-07</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.157092750339829e-07</v>
+      </c>
+      <c r="F9" t="n">
+        <v>149.7938830874084</v>
+      </c>
+      <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>6.121399469107974e-06</v>
+      <c r="H9" t="n">
+        <v>29.95877661748168</v>
       </c>
     </row>
     <row r="10">
@@ -500,13 +616,25 @@
         <v>4.01911</v>
       </c>
       <c r="B10" t="n">
-        <v>6.111087711909751e-06</v>
+        <v>7.47770498031644e-06</v>
       </c>
       <c r="C10" t="n">
+        <v>-6.835139131568462e-07</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.533293175018841e-07</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.468067067813677e-07</v>
+      </c>
+      <c r="F10" t="n">
+        <v>181.7828660240068</v>
+      </c>
+      <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>-1.350051406974486e-07</v>
+      <c r="H10" t="n">
+        <v>36.35657320480135</v>
       </c>
     </row>
     <row r="11">
@@ -514,13 +642,25 @@
         <v>4.01992</v>
       </c>
       <c r="B11" t="n">
-        <v>5.886152143124681e-06</v>
+        <v>6.530455842912659e-06</v>
       </c>
       <c r="C11" t="n">
+        <v>1.234643635116012e-06</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.509747016936481e-07</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.063089064825059e-07</v>
+      </c>
+      <c r="F11" t="n">
+        <v>101.0283356959472</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
-        <v>1.66002003513187e-06</v>
+      <c r="H11" t="n">
+        <v>20.20566713918943</v>
       </c>
     </row>
     <row r="12">
@@ -528,13 +668,25 @@
         <v>4.02504</v>
       </c>
       <c r="B12" t="n">
-        <v>5.819548152615912e-06</v>
+        <v>6.521242498237518e-06</v>
       </c>
       <c r="C12" t="n">
+        <v>-2.965901710852944e-06</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.669252617006687e-07</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.228305979979842e-07</v>
+      </c>
+      <c r="F12" t="n">
+        <v>182.1909173352108</v>
+      </c>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
-        <v>-3.238343056598251e-06</v>
+      <c r="H12" t="n">
+        <v>36.43818346704217</v>
       </c>
     </row>
     <row r="13">
@@ -542,13 +694,25 @@
         <v>4.02998</v>
       </c>
       <c r="B13" t="n">
-        <v>3.281457408554357e-06</v>
+        <v>4.509343426304274e-06</v>
       </c>
       <c r="C13" t="n">
+        <v>3.451070817701399e-06</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.76116823432522e-07</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.781343806130334e-07</v>
+      </c>
+      <c r="F13" t="n">
+        <v>314.2608612862372</v>
+      </c>
+      <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
-        <v>3.855536787676682e-06</v>
+      <c r="H13" t="n">
+        <v>62.85217225724745</v>
       </c>
     </row>
     <row r="14">
@@ -556,13 +720,25 @@
         <v>4.03514</v>
       </c>
       <c r="B14" t="n">
-        <v>6.086163342033679e-06</v>
+        <v>6.126708037343117e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.91037956564106e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>2.980782107986526e-06</v>
+        <v>2.062436655345901e-07</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.672405946344459e-07</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.49118925643166</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.358912978215767</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.098237851286332</v>
       </c>
     </row>
     <row r="15">
@@ -570,13 +746,25 @@
         <v>4.26996</v>
       </c>
       <c r="B15" t="n">
-        <v>9.43249640799242e-06</v>
+        <v>9.568449875072383e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.237850991218381e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>1.31632885401724e-06</v>
+        <v>2.694305677734075e-07</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.447018886928394e-07</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.57938414331208</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.06038764252795603</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.115876828662416</v>
       </c>
     </row>
     <row r="16">
@@ -584,13 +772,25 @@
         <v>4.29005</v>
       </c>
       <c r="B16" t="n">
-        <v>7.852647686499697e-06</v>
+        <v>8.364279362975275e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.125424046837008e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>1.260630074131006e-06</v>
+        <v>2.570425054612005e-07</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.074135705789582e-07</v>
+      </c>
+      <c r="F16" t="n">
+        <v>76.58316423606303</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.329869796038111e-15</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15.31663284721261</v>
       </c>
     </row>
     <row r="17">
@@ -598,13 +798,25 @@
         <v>4.291119999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>7.29068294619289e-06</v>
+        <v>7.368743017854516e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.679678532916442e-08</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.819380913404939e-09</v>
+        <v>2.57538842113874e-07</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.106594089418503e-07</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21.95628386773742</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0005337124910151925</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.391256773547484</v>
       </c>
     </row>
     <row r="18">
@@ -612,13 +824,25 @@
         <v>4.29319</v>
       </c>
       <c r="B18" t="n">
-        <v>7.820336987848377e-06</v>
+        <v>8.089146782765782e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4.914105858370564e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>6.053334406901116e-07</v>
+        <v>2.738056528706661e-07</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.354232848925642e-07</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15.64324235823585</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.00794000043348364</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.12864847164717</v>
       </c>
     </row>
     <row r="19">
@@ -626,13 +850,25 @@
         <v>4.2942</v>
       </c>
       <c r="B19" t="n">
-        <v>5.351265181169318e-06</v>
+        <v>5.919559765782836e-06</v>
       </c>
       <c r="C19" t="n">
+        <v>4.727250277910499e-06</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.190444697653083e-07</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.830995320911858e-07</v>
+      </c>
+      <c r="F19" t="n">
+        <v>89.54063507177939</v>
+      </c>
+      <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="n">
-        <v>5.581255022241375e-06</v>
+      <c r="H19" t="n">
+        <v>17.90812701435588</v>
       </c>
     </row>
     <row r="20">
@@ -640,13 +876,25 @@
         <v>4.29515</v>
       </c>
       <c r="B20" t="n">
-        <v>7.98802834534857e-06</v>
+        <v>8.157661895669142e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.229185381614554e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.824378391389014e-08</v>
+        <v>2.972416753142306e-07</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.575759573429226e-07</v>
+      </c>
+      <c r="F20" t="n">
+        <v>50.72043372921489</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9.867714423350549e-10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.14408674584298</v>
       </c>
     </row>
     <row r="21">
@@ -654,13 +902,25 @@
         <v>4.29615</v>
       </c>
       <c r="B21" t="n">
-        <v>6.981419529477808e-06</v>
+        <v>7.375200007314358e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.918672835930181e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>1.881375749860653e-06</v>
+        <v>2.945726555706809e-07</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.717863912351962e-07</v>
+      </c>
+      <c r="F21" t="n">
+        <v>47.91021728229386</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.705012407984043e-09</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9.582043456458772</v>
       </c>
     </row>
     <row r="22">
@@ -668,13 +928,25 @@
         <v>4.297219999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>6.904806793360483e-06</v>
+        <v>7.626856432273809e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>4.496437199872319e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>5.586870845302267e-06</v>
+        <v>3.168362718645888e-07</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.328663304333444e-07</v>
+      </c>
+      <c r="F22" t="n">
+        <v>63.89856233648781</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.896149903757305e-12</v>
+      </c>
+      <c r="H22" t="n">
+        <v>12.77971246729756</v>
       </c>
     </row>
     <row r="23">
@@ -682,13 +954,25 @@
         <v>4.298080000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>1.340700285548296e-05</v>
+        <v>1.406894715306522e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-5.298238514975808e-07</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.71475109015742e-07</v>
+        <v>7.145089870913087e-07</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.038403166996658e-06</v>
+      </c>
+      <c r="F23" t="n">
+        <v>24.95195485212429</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0001423417056448661</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.990390970424857</v>
       </c>
     </row>
     <row r="24">
@@ -696,13 +980,25 @@
         <v>4.299090000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>1.373540637683033e-05</v>
+        <v>1.579080734025226e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4.844423639239563e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>6.999324845090159e-06</v>
+        <v>8.913796901351466e-07</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.513413297482908e-06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>27.87107460667265</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.857295594300592e-05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5.57421492133453</v>
       </c>
     </row>
     <row r="25">
@@ -710,13 +1006,25 @@
         <v>4.30105</v>
       </c>
       <c r="B25" t="n">
-        <v>2.810012411389277e-05</v>
+        <v>2.870840774924385e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3.065189388681826e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>3.395790215586951e-06</v>
+        <v>1.447442942624859e-06</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.185050089407302e-06</v>
+      </c>
+      <c r="F25" t="n">
+        <v>21.11155162993409</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0007716748774188043</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.222310325986818</v>
       </c>
     </row>
     <row r="26">
@@ -724,13 +1032,25 @@
         <v>4.3031</v>
       </c>
       <c r="B26" t="n">
-        <v>2.497054889175113e-05</v>
+        <v>2.558398692277786e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-1.11357659361434e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.914017096489592e-06</v>
+        <v>1.282127774017705e-06</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.872708084426298e-06</v>
+      </c>
+      <c r="F26" t="n">
+        <v>36.97337403134038</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.063544443213331e-07</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7.394674806268076</v>
       </c>
     </row>
     <row r="27">
@@ -738,13 +1058,25 @@
         <v>4.30523</v>
       </c>
       <c r="B27" t="n">
-        <v>2.791254723569855e-05</v>
+        <v>2.825723102184277e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-6.00008419702358e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.734177736422007e-06</v>
+        <v>1.415309208294977e-06</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.969472206105711e-06</v>
+      </c>
+      <c r="F27" t="n">
+        <v>19.56592464038876</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001507110956046165</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.913184928077752</v>
       </c>
     </row>
     <row r="28">
@@ -752,13 +1084,25 @@
         <v>4.30725</v>
       </c>
       <c r="B28" t="n">
-        <v>2.786459842984706e-05</v>
+        <v>2.774016341867919e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.107879066738467e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>4.52047373704649e-07</v>
+        <v>1.420237548312075e-06</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.145599617752968e-06</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.49367097214582</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1310456047837257</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.698734194429164</v>
       </c>
     </row>
     <row r="29">
@@ -766,13 +1110,25 @@
         <v>4.3093</v>
       </c>
       <c r="B29" t="n">
-        <v>2.516684553349106e-05</v>
+        <v>2.618999090640943e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-7.962424672647623e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.047121394077578e-05</v>
+        <v>1.400182034144305e-06</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.834557135737406e-06</v>
+      </c>
+      <c r="F29" t="n">
+        <v>39.81724880638571</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.62559794403272e-07</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7.963449761277142</v>
       </c>
     </row>
     <row r="30">
@@ -780,13 +1136,25 @@
         <v>4.30996</v>
       </c>
       <c r="B30" t="n">
-        <v>2.919352137172821e-05</v>
+        <v>2.937138090378907e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3.510728826571433e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>1.454270304432866e-06</v>
+        <v>1.399342236607595e-06</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.219615828698972e-06</v>
+      </c>
+      <c r="F30" t="n">
+        <v>35.38262467445013</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.261950848263638e-06</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7.076524934890026</v>
       </c>
     </row>
     <row r="31">
@@ -794,13 +1162,25 @@
         <v>4.31117</v>
       </c>
       <c r="B31" t="n">
-        <v>2.058013709446847e-05</v>
+        <v>2.294336153979376e-05</v>
       </c>
       <c r="C31" t="n">
+        <v>-2.51197159628925e-06</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.238616232971978e-06</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.802582644376345e-06</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.95926073893037</v>
+      </c>
+      <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="D31" t="n">
-        <v>-5.316448548192045e-06</v>
+      <c r="H31" t="n">
+        <v>18.79185214778607</v>
       </c>
     </row>
     <row r="32">
@@ -808,13 +1188,25 @@
         <v>4.31311</v>
       </c>
       <c r="B32" t="n">
-        <v>1.852520255422875e-05</v>
+        <v>2.172111559159037e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.705350284873208e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>3.847355712795199e-06</v>
+        <v>1.19500950916527e-06</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.740438714525424e-06</v>
+      </c>
+      <c r="F32" t="n">
+        <v>66.16780159046256</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6.414868636284154e-13</v>
+      </c>
+      <c r="H32" t="n">
+        <v>13.23356031809251</v>
       </c>
     </row>
     <row r="33">
@@ -822,13 +1214,25 @@
         <v>4.31513</v>
       </c>
       <c r="B33" t="n">
-        <v>2.458262285791163e-05</v>
+        <v>2.600013122049072e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>8.551273561483765e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>9.682866922577799e-06</v>
+        <v>1.301548613354875e-06</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.100296663304518e-06</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10.70536775563172</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0575449400346757</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.141073551126345</v>
       </c>
     </row>
     <row r="34">
@@ -836,13 +1240,25 @@
         <v>4.3172</v>
       </c>
       <c r="B34" t="n">
-        <v>2.651132935475156e-05</v>
+        <v>2.635361033799168e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2.442011355936954e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>2.457282699967503e-06</v>
+        <v>1.285308871410318e-06</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.019630292630564e-06</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10.1164668614714</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.07200167300643445</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.02329337229428</v>
       </c>
     </row>
     <row r="35">
@@ -850,13 +1266,25 @@
         <v>4.31917</v>
       </c>
       <c r="B35" t="n">
-        <v>2.865683590386361e-05</v>
+        <v>2.861809525363702e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1.533272654322236e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.395242904004008e-06</v>
+        <v>1.438026734730948e-06</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.125214795063296e-06</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10.24835129835724</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.06849648974065115</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.049670259671447</v>
       </c>
     </row>
     <row r="36">
@@ -864,13 +1292,25 @@
         <v>4.32116</v>
       </c>
       <c r="B36" t="n">
-        <v>2.530592460300115e-05</v>
+        <v>2.552670076522376e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>8.719035737097495e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>8.90772504668933e-06</v>
+        <v>1.204696398760086e-06</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.955392796316005e-06</v>
+      </c>
+      <c r="F36" t="n">
+        <v>15.05894147204816</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0101134367862683</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.011788294409631</v>
       </c>
     </row>
     <row r="37">
@@ -878,13 +1318,25 @@
         <v>4.32298</v>
       </c>
       <c r="B37" t="n">
-        <v>2.380654426370523e-05</v>
+        <v>2.474578199743323e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3.479460238835725e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>3.055871999033009e-06</v>
+        <v>1.149667500009521e-06</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.793173239077773e-06</v>
+      </c>
+      <c r="F37" t="n">
+        <v>10.38645958260589</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.06499698408226229</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.077291916521177</v>
       </c>
     </row>
     <row r="38">
@@ -892,13 +1344,25 @@
         <v>4.32521</v>
       </c>
       <c r="B38" t="n">
-        <v>1.892623344788665e-05</v>
+        <v>1.964553594963918e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>3.57769769730398e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>4.367201401239326e-06</v>
+        <v>8.978921635943195e-07</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.423838448333093e-06</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9.374210003662997</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.09503731560857176</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.874842000732599</v>
       </c>
     </row>
     <row r="39">
@@ -906,13 +1370,25 @@
         <v>4.32711</v>
       </c>
       <c r="B39" t="n">
-        <v>1.969086239109609e-05</v>
+        <v>1.973957728436641e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2.469587070630325e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>2.388041969175423e-06</v>
+        <v>8.259118368890407e-07</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.345212949617972e-06</v>
+      </c>
+      <c r="F39" t="n">
+        <v>12.01519697703164</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0345801391214241</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.403039395406327</v>
       </c>
     </row>
     <row r="40">
@@ -920,13 +1396,25 @@
         <v>4.32908</v>
       </c>
       <c r="B40" t="n">
-        <v>1.219959544415079e-05</v>
+        <v>1.359810131934269e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>8.587492144475168e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>1.042833938534831e-05</v>
+        <v>5.476570112604258e-07</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9.098441794695338e-07</v>
+      </c>
+      <c r="F40" t="n">
+        <v>70.18926640953146</v>
+      </c>
+      <c r="G40" t="n">
+        <v>9.35918009759007e-14</v>
+      </c>
+      <c r="H40" t="n">
+        <v>14.03785328190629</v>
       </c>
     </row>
     <row r="41">
@@ -934,13 +1422,25 @@
         <v>4.33012</v>
       </c>
       <c r="B41" t="n">
-        <v>1.628454588539818e-05</v>
+        <v>1.658585697575215e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3.607125400677528e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>3.395185809388768e-06</v>
+        <v>7.592293757943592e-07</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.205601219355445e-06</v>
+      </c>
+      <c r="F41" t="n">
+        <v>14.9528037138003</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01056591537808649</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.99056074276006</v>
       </c>
     </row>
     <row r="42">
@@ -948,13 +1448,25 @@
         <v>4.33119</v>
       </c>
       <c r="B42" t="n">
-        <v>2.554211522685777e-05</v>
+        <v>2.54899930572276e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2.003747850197792e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>1.834906968136286e-06</v>
+        <v>8.276247074067186e-07</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.334336005595159e-06</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.564808874171622</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2550688373378616</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.312961774834324</v>
       </c>
     </row>
     <row r="43">
@@ -962,13 +1474,25 @@
         <v>4.33324</v>
       </c>
       <c r="B43" t="n">
-        <v>2.461654410937172e-05</v>
+        <v>2.496930981879844e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>6.279177572160435e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>6.242326384430489e-06</v>
+        <v>7.14375249529609e-07</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.180469894811076e-06</v>
+      </c>
+      <c r="F43" t="n">
+        <v>23.49672429170095</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0002711903706645868</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.699344858340191</v>
       </c>
     </row>
     <row r="44">
@@ -976,13 +1500,25 @@
         <v>4.33515</v>
       </c>
       <c r="B44" t="n">
-        <v>2.479626560802028e-05</v>
+        <v>2.474323965056283e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2.262291310337895e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>2.165569669591044e-06</v>
+        <v>6.81397500437272e-07</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.103213724700299e-06</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.110814228516446</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.53357435093798</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8221628457032892</v>
       </c>
     </row>
     <row r="45">
@@ -990,13 +1526,25 @@
         <v>4.34004</v>
       </c>
       <c r="B45" t="n">
-        <v>2.22213012105017e-05</v>
+        <v>2.225142982593475e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1.695442242866639e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>1.636102390265473e-06</v>
+        <v>6.005752288281179e-07</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9.637580474459336e-07</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.614173231288532</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.4647542686232735</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9228346462577065</v>
       </c>
     </row>
     <row r="46">
@@ -1004,13 +1552,25 @@
         <v>4.34488</v>
       </c>
       <c r="B46" t="n">
-        <v>2.292988830841659e-05</v>
+        <v>2.301479608451052e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.504732013229291e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>3.650990535476769e-06</v>
+        <v>6.087930623585788e-07</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.015680586501243e-06</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.00875251424906</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.8479326378203695</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.401750502849812</v>
       </c>
     </row>
     <row r="47">
@@ -1018,13 +1578,25 @@
         <v>4.34998</v>
       </c>
       <c r="B47" t="n">
-        <v>2.215115640138261e-05</v>
+        <v>2.218555035551712e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3.414647939576035e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>2.826829119310395e-07</v>
+        <v>5.798468121230897e-07</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9.171465350142853e-07</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.385991313681656</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9258395173940591</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.2771982627363312</v>
       </c>
     </row>
     <row r="48">
@@ -1032,13 +1604,25 @@
         <v>4.37005</v>
       </c>
       <c r="B48" t="n">
-        <v>1.53816665429444e-05</v>
+        <v>1.535383820634941e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2.36327388515494e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>2.335666757373973e-06</v>
+        <v>4.271561624188535e-07</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7.006610173973944e-07</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.037765992165139</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.6941632919921744</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.6075531984330278</v>
       </c>
     </row>
     <row r="49">
@@ -1046,13 +1630,25 @@
         <v>4.39015</v>
       </c>
       <c r="B49" t="n">
-        <v>2.03959398062517e-05</v>
+        <v>2.04083971528424e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1.367144608602445e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>1.344823512034417e-06</v>
+        <v>5.532089087323063e-07</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8.994081162641999e-07</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.92959723998786</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.7108390445408719</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.5859194479975721</v>
       </c>
     </row>
     <row r="50">
@@ -1060,13 +1656,25 @@
         <v>4.41003</v>
       </c>
       <c r="B50" t="n">
-        <v>3.014916450595004e-05</v>
+        <v>3.051033714598852e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2.375146932327982e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>2.636426760491844e-06</v>
+        <v>7.912505249964516e-07</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.308127807749256e-06</v>
+      </c>
+      <c r="F50" t="n">
+        <v>11.25839458016435</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04649075883937748</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.25167891603287</v>
       </c>
     </row>
     <row r="51">
@@ -1074,13 +1682,25 @@
         <v>4.42024</v>
       </c>
       <c r="B51" t="n">
-        <v>4.433301596577831e-05</v>
+        <v>4.442743860166382e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>4.540395616472457e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>4.471907667824456e-06</v>
+        <v>1.13915396490018e-06</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.866953888863627e-06</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10.75566706215252</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05644546620023649</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.151133412430503</v>
       </c>
     </row>
     <row r="52">
@@ -1088,13 +1708,25 @@
         <v>4.43018</v>
       </c>
       <c r="B52" t="n">
-        <v>6.118451881078905e-05</v>
+        <v>6.124235973981108e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3.562940284370633e-07</v>
       </c>
       <c r="D52" t="n">
-        <v>3.73045316813342e-07</v>
+        <v>1.498242449914445e-06</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.386372542187062e-06</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.946097074802255</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.8565521505270106</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.3892194149604509</v>
       </c>
     </row>
     <row r="53">
@@ -1102,13 +1734,25 @@
         <v>4.44004</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001265377007416726</v>
+        <v>0.0001268299563397185</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1.116622494392484e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>1.114620901843163e-05</v>
+        <v>3.16438832888372e-06</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5.218177723114372e-06</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3.383749004455966</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.6410461569086084</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.6767498008911932</v>
       </c>
     </row>
     <row r="54">
@@ -1116,13 +1760,25 @@
         <v>4.44994</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002169524595883424</v>
+        <v>0.000217694864024219</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>5.208667165239892e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>5.601299380879603e-06</v>
+        <v>5.252639524362851e-06</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8.397811129091399e-06</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.659985695900923</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.8939018148097446</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.3319971391801845</v>
       </c>
     </row>
     <row r="55">
@@ -1130,13 +1786,25 @@
         <v>4.45499</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0005912944181301242</v>
+        <v>0.0005913140749238895</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>6.19112161365673e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>6.081914835050596e-05</v>
+        <v>1.411167154860525e-05</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.327795118330731e-05</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3.620415279181057</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.6052506590413506</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.7240830558362115</v>
       </c>
     </row>
     <row r="56">
@@ -1144,13 +1812,25 @@
         <v>4.46012</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0009579333201370832</v>
+        <v>0.0009584095316234836</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>6.657970652575607e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>6.671501173992873e-05</v>
+        <v>2.230300296834624e-05</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.654772359039402e-05</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.847471500798708</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.8698219785729266</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.3694943001597417</v>
       </c>
     </row>
     <row r="57">
@@ -1158,13 +1838,25 @@
         <v>4.469959999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>0.00106295532756564</v>
+        <v>0.001063573829917982</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>4.761700841378965e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>4.521081294800022e-05</v>
+        <v>2.424961536835155e-05</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.949828007835756e-05</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.941055616661827</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.7090730145905721</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.5882111233323655</v>
       </c>
     </row>
     <row r="58">
@@ -1172,13 +1864,25 @@
         <v>4.477980000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>0.000857928809461995</v>
+        <v>0.0008577423090683208</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>7.90087846393345e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>7.690207317295923e-05</v>
+        <v>1.965906549407901e-05</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.259176391219178e-05</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.982116404581514</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.8516140012755543</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.3964232809163028</v>
       </c>
     </row>
     <row r="59">
@@ -1186,13 +1890,25 @@
         <v>4.48613</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00043957019770587</v>
+        <v>0.0004398594072266897</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>3.053627082067888e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>3.052248155086452e-05</v>
+        <v>1.011770699553294e-05</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.649283936227037e-05</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.978815527077113</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.7032520240393375</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.5957631054154225</v>
       </c>
     </row>
     <row r="60">
@@ -1200,13 +1916,25 @@
         <v>4.48819</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0003388271762265988</v>
+        <v>0.0003390038704107254</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>2.606532998731848e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>2.643484969928508e-05</v>
+        <v>7.816792423203548e-06</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.275791327483858e-05</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.992177323978447</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.7011919365947222</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.5984354647956895</v>
       </c>
     </row>
     <row r="61">
@@ -1214,13 +1942,25 @@
         <v>4.490069999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0004314946817184171</v>
+        <v>0.0004321523389448482</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>3.029990976223789e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>2.768962856043067e-05</v>
+        <v>9.843502197095487e-06</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.623120563435897e-05</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6.626935355870684</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.2498963282697417</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.325387071174137</v>
       </c>
     </row>
     <row r="62">
@@ -1228,13 +1968,25 @@
         <v>4.49222</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001912198060490298</v>
+        <v>0.0001911741103934529</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1.787618962107004e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>1.757190739472624e-05</v>
+        <v>4.391992063347332e-06</v>
+      </c>
+      <c r="E62" t="n">
+        <v>7.29072070049168e-06</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.357222059830283</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9289349013572099</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.2714444119660565</v>
       </c>
     </row>
     <row r="63">
@@ -1242,13 +1994,25 @@
         <v>4.49499</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0001369456688201901</v>
+        <v>0.0001369769122253814</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>7.749480459152318e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>7.687710480066633e-06</v>
+        <v>3.101881820237691e-06</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.076018291360935e-06</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.8549442329883669</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.9733972743512923</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.1709888465976734</v>
       </c>
     </row>
     <row r="64">
@@ -1256,13 +2020,25 @@
         <v>4.499969999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>7.903585320542918e-05</v>
+        <v>7.910968318953361e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>4.747175535500761e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>4.546840300187622e-06</v>
+        <v>1.839115871479939e-06</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.011432928820043e-06</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.933870166164148</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.7101805032089459</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.5867740332328297</v>
       </c>
     </row>
     <row r="65">
@@ -1270,13 +2046,25 @@
         <v>4.51021</v>
       </c>
       <c r="B65" t="n">
-        <v>4.242770375754874e-05</v>
+        <v>4.249810654483944e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1.04637980920617e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>1.032668935172783e-06</v>
+        <v>1.02944916974719e-06</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.667111528917341e-06</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.998682958438122</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.5496055892155742</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.7997365916876243</v>
       </c>
     </row>
     <row r="66">
@@ -1284,13 +2072,25 @@
         <v>4.51218</v>
       </c>
       <c r="B66" t="n">
-        <v>3.247538707937568e-05</v>
+        <v>3.247260936743598e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>3.019549357685135e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>2.74627283939876e-06</v>
+        <v>9.763588650921314e-07</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.584277132633425e-06</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10.14424149883535</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.07124988184147218</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.028848299767071</v>
       </c>
     </row>
     <row r="67">
@@ -1298,13 +2098,25 @@
         <v>4.51508</v>
       </c>
       <c r="B67" t="n">
-        <v>3.181817608336998e-05</v>
+        <v>3.168270996272149e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>3.148549416343612e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>3.152756881119238e-06</v>
+        <v>1.303571147636914e-06</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.064231531868469e-06</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.262869030257173</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.8117046711660437</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.4525738060514345</v>
       </c>
     </row>
     <row r="68">
@@ -1312,13 +2124,25 @@
         <v>4.52007</v>
       </c>
       <c r="B68" t="n">
-        <v>3.852536059945091e-05</v>
+        <v>3.834477605126996e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1.246939603431899e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>1.058345432261714e-06</v>
+        <v>1.6769438904571e-06</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.588087762058471e-06</v>
+      </c>
+      <c r="F68" t="n">
+        <v>5.396926991760915</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.3693806132686044</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.079385398352183</v>
       </c>
     </row>
     <row r="69">
@@ -1326,13 +2150,25 @@
         <v>4.52524</v>
       </c>
       <c r="B69" t="n">
-        <v>5.300121560408005e-05</v>
+        <v>5.341437109620922e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>8.057780813234904e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>8.893769348088384e-06</v>
+        <v>2.566053653701349e-06</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.089243615997508e-06</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7.076512732637033</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.2150118722724392</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.415302546527407</v>
       </c>
     </row>
     <row r="70">
@@ -1340,13 +2176,25 @@
         <v>4.529409999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>4.8796390290808e-05</v>
+        <v>4.866380416786839e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>9.233514472909008e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>9.143566249845377e-06</v>
+        <v>2.136090394107041e-06</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.388412240486601e-06</v>
+      </c>
+      <c r="F70" t="n">
+        <v>15.89601539854571</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.007147311288878244</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.179203079709142</v>
       </c>
     </row>
     <row r="71">
@@ -1354,13 +2202,25 @@
         <v>4.53506</v>
       </c>
       <c r="B71" t="n">
-        <v>9.851705697384112e-05</v>
+        <v>9.938157680477053e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1.590146552694693e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>1.775266140194984e-05</v>
+        <v>4.264295189029203e-06</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6.838275561606621e-06</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.524625891372153</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.9102106170850922</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.3049251782744306</v>
       </c>
     </row>
     <row r="72">
@@ -1368,13 +2228,25 @@
         <v>4.54024</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0001478262894697751</v>
+        <v>0.0001480665708158932</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>3.270455591337854e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>3.368954424490076e-05</v>
+        <v>6.160220112350839e-06</v>
+      </c>
+      <c r="E72" t="n">
+        <v>9.865235634305529e-06</v>
+      </c>
+      <c r="F72" t="n">
+        <v>15.5653588711346</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.008201028414349554</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.11307177422692</v>
       </c>
     </row>
     <row r="73">
@@ -1382,13 +2254,25 @@
         <v>4.5498</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0003772220075576104</v>
+        <v>0.0003770376497675401</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>2.496637498405229e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>2.361916269692106e-05</v>
+        <v>9.433563116853366e-06</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.523914251259105e-05</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4.168280486225283</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.5254509923641414</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.8336560972450566</v>
       </c>
     </row>
     <row r="74">
@@ -1396,13 +2280,25 @@
         <v>4.56018</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0009641620607551636</v>
+        <v>0.0009637004359216051</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>7.365888329618814e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>6.848613154322162e-05</v>
+        <v>2.354122948362198e-05</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.857311275940646e-05</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.733012374066915</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.4493245684826964</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.946602474813383</v>
       </c>
     </row>
     <row r="75">
@@ -1410,13 +2306,25 @@
         <v>4.570130000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0009555047818383909</v>
+        <v>0.0009554904894363965</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>4.267286761898339e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>4.103894322255514e-05</v>
+        <v>2.359071926193453e-05</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.817646422110455e-05</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.647477519813707</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.6011991435915298</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.7294955039627414</v>
       </c>
     </row>
     <row r="76">
@@ -1424,13 +2332,25 @@
         <v>4.580030000000001</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005151159511097477</v>
+        <v>0.0005142984083512548</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>2.404814605460936e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>2.112216863258822e-05</v>
+        <v>1.403354113768877e-05</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.229245841677912e-05</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.36263515672</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.928356533972495</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.2725270313439999</v>
       </c>
     </row>
     <row r="77">
@@ -1438,13 +2358,25 @@
         <v>4.59008</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0002714602001285801</v>
+        <v>0.000271193717408372</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>2.346942730410668e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>2.239325705708892e-05</v>
+        <v>7.314580951097654e-06</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.172146091379371e-05</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5.192874761338746</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.3927980228288046</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.038574952267749</v>
       </c>
     </row>
     <row r="78">
@@ -1452,13 +2384,25 @@
         <v>4.60027</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0001333430198014093</v>
+        <v>0.0001341078551210558</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1.3702677949592e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>1.419583041178567e-05</v>
+        <v>4.238504315304995e-06</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6.720201532367658e-06</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3.727807856575031</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.5892312326652343</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.7455615713150061</v>
       </c>
     </row>
     <row r="79">
@@ -1466,13 +2410,25 @@
         <v>4.60999</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0001367540702215652</v>
+        <v>0.0001370381038928037</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>-9.230811664546356e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>-9.859544915142399e-06</v>
+        <v>5.066855662717218e-06</v>
+      </c>
+      <c r="E79" t="n">
+        <v>7.583100320792821e-06</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4.404452271749579</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.4927682555516322</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.8808904543499159</v>
       </c>
     </row>
     <row r="80">
@@ -1480,13 +2436,25 @@
         <v>4.62023</v>
       </c>
       <c r="B80" t="n">
-        <v>8.484180268039175e-05</v>
+        <v>8.662410850593235e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1.617793286424148e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.242505233954993e-07</v>
+        <v>4.328915892433836e-06</v>
+      </c>
+      <c r="E80" t="n">
+        <v>6.35121087818748e-06</v>
+      </c>
+      <c r="F80" t="n">
+        <v>22.02863242977318</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0005170766357478485</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4.405726485954635</v>
       </c>
     </row>
     <row r="81">
@@ -1494,13 +2462,25 @@
         <v>4.62994</v>
       </c>
       <c r="B81" t="n">
-        <v>8.717291102399412e-05</v>
+        <v>8.74296147579978e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>-4.218562290044488e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.12874051593443e-06</v>
+        <v>3.606965134358211e-06</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5.424716905379044e-06</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9.386486472361581</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.09460651704741319</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.877297294472316</v>
       </c>
     </row>
     <row r="82">
@@ -1508,13 +2488,25 @@
         <v>4.63517</v>
       </c>
       <c r="B82" t="n">
-        <v>5.347265026052302e-05</v>
+        <v>5.300333286556533e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1.091999698713966e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>1.073021740521759e-05</v>
+        <v>2.266718554845457e-06</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.673232111976433e-06</v>
+      </c>
+      <c r="F82" t="n">
+        <v>6.600573077959161</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.2520804953099675</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.320114615591832</v>
       </c>
     </row>
     <row r="83">
@@ -1522,13 +2514,25 @@
         <v>4.639959999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>6.466578410473353e-05</v>
+        <v>6.445031585818442e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>2.880025707516105e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>2.843430932094036e-06</v>
+        <v>2.262699461601695e-06</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.564936908241358e-06</v>
+      </c>
+      <c r="F83" t="n">
+        <v>5.382798025220923</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.3709686917319597</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.076559605044185</v>
       </c>
     </row>
     <row r="84">
@@ -1536,13 +2540,25 @@
         <v>4.64996</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001374867920565752</v>
+        <v>0.0001387539593718091</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1.905349227558645e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>3.823457576426794e-06</v>
+        <v>3.774587564732475e-06</v>
+      </c>
+      <c r="E84" t="n">
+        <v>6.018889818015373e-06</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5.647362028958361</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.3420574838122457</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.129472405791672</v>
       </c>
     </row>
     <row r="85">
@@ -1550,13 +2566,25 @@
         <v>4.67012</v>
       </c>
       <c r="B85" t="n">
-        <v>9.232324099732484e-05</v>
+        <v>9.226808889535007e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>3.671851814908024e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>3.363571730241404e-06</v>
+        <v>2.384584714579917e-06</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.798311252887377e-06</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.253296615734723</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.8131013070971134</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.4506593231469447</v>
       </c>
     </row>
     <row r="86">
@@ -1564,13 +2592,25 @@
         <v>4.68015</v>
       </c>
       <c r="B86" t="n">
-        <v>4.213942083772965e-05</v>
+        <v>4.259766246921226e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>2.890699638625146e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>3.535950869415304e-06</v>
+        <v>1.188455341503235e-06</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.946983523115998e-06</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5.547478961314431</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.3527677247660252</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.109495792262886</v>
       </c>
     </row>
     <row r="87">
@@ -1578,13 +2618,25 @@
         <v>4.68993</v>
       </c>
       <c r="B87" t="n">
-        <v>3.577127410183799e-05</v>
+        <v>3.578726834655917e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-6.947346739215831e-07</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.262966634739646e-06</v>
+        <v>9.970341031329353e-07</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.541239905940365e-06</v>
+      </c>
+      <c r="F87" t="n">
+        <v>6.585170519173658</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.2533639184987895</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.317034103834732</v>
       </c>
     </row>
     <row r="88">
@@ -1592,13 +2644,25 @@
         <v>4.71002</v>
       </c>
       <c r="B88" t="n">
-        <v>3.355052397665574e-05</v>
+        <v>3.358295696310546e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>2.816544289214138e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>2.716032212741559e-06</v>
+        <v>8.432552902355533e-07</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.398429083081141e-06</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3.401700847991567</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.6383108929541721</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.6803401695983133</v>
       </c>
     </row>
     <row r="89">
@@ -1606,13 +2670,25 @@
         <v>4.73</v>
       </c>
       <c r="B89" t="n">
-        <v>4.197385663948215e-05</v>
+        <v>4.243156371013412e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>2.663406758061239e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>3.257428335456588e-06</v>
+        <v>1.081074355803172e-06</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.761881789079835e-06</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5.208424243073006</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.3909771300630723</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.041684848614601</v>
       </c>
     </row>
     <row r="90">
@@ -1620,13 +2696,25 @@
         <v>4.75</v>
       </c>
       <c r="B90" t="n">
-        <v>7.707406006043929e-05</v>
+        <v>7.728423742869987e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>2.536030112317239e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>2.018442374475648e-06</v>
+        <v>1.870256869007596e-06</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.01807033488653e-06</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7.867202611232687</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.1637078108420087</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.573440522246538</v>
       </c>
     </row>
     <row r="91">
@@ -1634,13 +2722,25 @@
         <v>4.75518</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001772704796683526</v>
+        <v>0.0001773274863424931</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1.075099308152743e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>1.027352444494489e-05</v>
+        <v>4.130364806401259e-06</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6.755751864367458e-06</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.897326828417406</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.715811304105169</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.5794653656834812</v>
       </c>
     </row>
     <row r="92">
@@ -1648,13 +2748,25 @@
         <v>4.75888</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001996490052438076</v>
+        <v>0.0001999400934178971</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>2.727494275776154e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>3.056519382703008e-06</v>
+        <v>4.645834291733768e-06</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7.471541770660179e-06</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.777981786125388</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.8789326148875902</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.3555963572250776</v>
       </c>
     </row>
     <row r="93">
@@ -1662,13 +2774,25 @@
         <v>4.77004</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0002338911034530465</v>
+        <v>0.0002342755805977403</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1.715683873567303e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>1.594171804226039e-05</v>
+        <v>5.38821651795933e-06</v>
+      </c>
+      <c r="E93" t="n">
+        <v>8.854722316868023e-06</v>
+      </c>
+      <c r="F93" t="n">
+        <v>5.916085355371555</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.3144700198081487</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.183217071074311</v>
       </c>
     </row>
     <row r="94">
@@ -1676,13 +2800,25 @@
         <v>4.77502</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0002420842277373178</v>
+        <v>0.000242418105762104</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1.197699075244438e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>1.228703502016538e-05</v>
+        <v>5.798725348277406e-06</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9.394297941657826e-06</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.178412019595304</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.9469315975629855</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.2356824039190609</v>
       </c>
     </row>
     <row r="95">
@@ -1690,13 +2826,25 @@
         <v>4.780180000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0002147578151684078</v>
+        <v>0.000215397372067455</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>6.786717253196288e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>7.596880018234965e-06</v>
+        <v>6.015791639704892e-06</v>
+      </c>
+      <c r="E95" t="n">
+        <v>9.508522979200977e-06</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.48178469782452</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.9151622349482925</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.2963569395649039</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +2852,25 @@
         <v>4.79012</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0001881710638202546</v>
+        <v>0.0001887893614373165</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1.060605487029071e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>1.18207630285667e-05</v>
+        <v>5.296767047656543e-06</v>
+      </c>
+      <c r="E96" t="n">
+        <v>8.533126799802764e-06</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.769977785788718</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.735396592973518</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.5539955571577436</v>
       </c>
     </row>
     <row r="97">
@@ -1718,13 +2878,25 @@
         <v>4.799919999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001427383732554706</v>
+        <v>0.0001430904053474773</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>4.255117332179555e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>5.059696025856237e-06</v>
+        <v>3.951743767563906e-06</v>
+      </c>
+      <c r="E97" t="n">
+        <v>6.320682756632455e-06</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.883163814164054</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.8650638483707079</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.3766327628328107</v>
       </c>
     </row>
     <row r="98">
@@ -1732,13 +2904,25 @@
         <v>4.81003</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0001321387283243944</v>
+        <v>0.0001318704571382614</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>5.314468406228488e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>4.763276403980423e-06</v>
+        <v>3.514018496817971e-06</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.599790075561392e-06</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.314160336880431</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.9334678673790048</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.2628320673760863</v>
       </c>
     </row>
     <row r="99">
@@ -1746,13 +2930,25 @@
         <v>4.81216</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001235731902857879</v>
+        <v>0.0001239043560752122</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1.066270115252981e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>1.115624381985428e-05</v>
+        <v>3.020818208665136e-06</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4.942232503588061e-06</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.405655882270664</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.7906315513878661</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.4811311764541328</v>
       </c>
     </row>
     <row r="100">
@@ -1760,13 +2956,25 @@
         <v>4.81527</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0001213184263778422</v>
+        <v>0.0001216396448510296</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>6.111646833117067e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>6.447613588503265e-06</v>
+        <v>2.833837910156635e-06</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4.587665903468735e-06</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.18786576673649</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.9460361704015015</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.2375731533472979</v>
       </c>
     </row>
     <row r="101">
@@ -1774,13 +2982,25 @@
         <v>4.82006</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0001203682873853253</v>
+        <v>0.0001204046499446382</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1.392582994016553e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>1.374848740051942e-05</v>
+        <v>2.678149256392122e-06</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4.471700884517137e-06</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.427683113747263</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.7873445538645193</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.4855366227494525</v>
       </c>
     </row>
     <row r="102">
@@ -1788,13 +3008,25 @@
         <v>4.82989</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0001209802474837045</v>
+        <v>0.0001211498896109834</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>7.077821072431101e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>6.896233169430973e-06</v>
+        <v>2.618905147972212e-06</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4.316218209358389e-06</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.594003746676775</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.7622761144529072</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.518800749335355</v>
       </c>
     </row>
     <row r="103">
@@ -1802,13 +3034,25 @@
         <v>4.85003</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001428829688030177</v>
+        <v>0.0001430584345025226</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>8.972148375906974e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>8.540267526491028e-06</v>
+        <v>3.046618592564741e-06</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5.057183504144583e-06</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.91001545936392</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.7138565144817335</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.5820030918727841</v>
       </c>
     </row>
     <row r="104">
@@ -1816,13 +3060,25 @@
         <v>4.86629</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0001899960258156093</v>
+        <v>0.0001901304710899793</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1.86567912476874e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>1.857997433500851e-05</v>
+        <v>4.00487695403337e-06</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6.694668506136848e-06</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.549805904461</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.9072516496407098</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.3099611808922</v>
       </c>
     </row>
     <row r="105">
@@ -1830,13 +3086,25 @@
         <v>4.88989</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003109533941216025</v>
+        <v>0.0003113604688538661</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>2.409915246750287e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>2.347799445411264e-05</v>
+        <v>6.457999043825913e-06</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.074835387781526e-05</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.731739302029442</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.7412599363460268</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.5463478604058883</v>
       </c>
     </row>
     <row r="106">
@@ -1844,13 +3112,25 @@
         <v>4.89991</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004752600097452468</v>
+        <v>0.0004756821691737393</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>2.941843393224693e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>2.90993990944273e-05</v>
+        <v>9.989194963548343e-06</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.646929483852985e-05</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.713965542733884</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.8871356626361735</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.3427931085467767</v>
       </c>
     </row>
     <row r="107">
@@ -1858,13 +3138,25 @@
         <v>4.910130000000001</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0006290699214777303</v>
+        <v>0.0006296837947375867</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>4.994535259388467e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>4.907043425133215e-05</v>
+        <v>1.307956638503873e-05</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.174026023639768e-05</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.001207597914604</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.8489779165583822</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.4002415195829209</v>
       </c>
     </row>
     <row r="108">
@@ -1872,13 +3164,25 @@
         <v>4.91996</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0008375970674795721</v>
+        <v>0.0008381949504579553</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>3.525379224752795e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>3.54011527588862e-05</v>
+        <v>1.754761177105705e-05</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.87346076956654e-05</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.120671913726066</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.9522576368975384</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.2241343827452131</v>
       </c>
     </row>
     <row r="109">
@@ -1886,13 +3190,25 @@
         <v>4.92615</v>
       </c>
       <c r="B109" t="n">
-        <v>0.001043556499980443</v>
+        <v>0.001044705416722263</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>8.049050474269459e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>7.82033011364501e-05</v>
+        <v>2.150209870518834e-05</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.580419068872759e-05</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.367447978289454</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.7963116865514773</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.4734895956578908</v>
       </c>
     </row>
     <row r="110">
@@ -1900,13 +3216,25 @@
         <v>4.930190000000001</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001128599464405979</v>
+        <v>0.001129214124532197</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>0.0001061502126050196</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0001050529568497794</v>
+        <v>2.328941661352214e-05</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.898785233832799e-05</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.177162993059617</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.9470494144571359</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.2354325986119234</v>
       </c>
     </row>
     <row r="111">
@@ -1914,13 +3242,25 @@
         <v>4.93692</v>
       </c>
       <c r="B111" t="n">
-        <v>0.00140652321257559</v>
+        <v>0.00140776954505154</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>0.000118276491987573</v>
       </c>
       <c r="D111" t="n">
-        <v>0.000117332443115189</v>
+        <v>2.887407719124466e-05</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4.813332853749819e-05</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.544712902902498</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.9078529950712964</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.3089425805804996</v>
       </c>
     </row>
     <row r="112">
@@ -1928,13 +3268,25 @@
         <v>4.94675</v>
       </c>
       <c r="B112" t="n">
-        <v>0.00172520285527319</v>
+        <v>0.001726815779563234</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>9.933543646804864e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>9.765515571185415e-05</v>
+        <v>3.553416142376935e-05</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5.861619356889823e-05</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.698822862299378</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.8890480254242175</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.3397645724598756</v>
       </c>
     </row>
     <row r="113">
@@ -1942,13 +3294,25 @@
         <v>4.95027</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001746023204047304</v>
+        <v>0.001748077727723693</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>0.0001109880703842796</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0001068757282341215</v>
+        <v>3.6066465494429e-05</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5.972618336940781e-05</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.538361261936187</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.7707070316516375</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.5076722523872373</v>
       </c>
     </row>
     <row r="114">
@@ -1956,13 +3320,25 @@
         <v>4.95676</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001959224534737814</v>
+        <v>0.001961340138605762</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>8.041405601422105e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>7.820314776447397e-05</v>
+        <v>4.04803680984715e-05</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.647146316410999e-05</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.979847924178648</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8519263788513373</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.3959695848357295</v>
       </c>
     </row>
     <row r="115">
@@ -1970,13 +3346,25 @@
         <v>4.961869999999999</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001998175898320886</v>
+        <v>0.002000077105851929</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>9.544054324788572e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>9.445431320185254e-05</v>
+        <v>4.120713572422134e-05</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.767015946562768e-05</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.56859275052784</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.9050210751207961</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.313718550105568</v>
       </c>
     </row>
     <row r="116">
@@ -1984,13 +3372,25 @@
         <v>4.96475</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001987239831267286</v>
+        <v>0.001989796401314622</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>9.670979954967468e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>9.41393260609452e-05</v>
+        <v>4.10333728388833e-05</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.753819541750947e-05</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.340341891343352</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.800323965417133</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.4680683782686704</v>
       </c>
     </row>
     <row r="117">
@@ -1998,13 +3398,25 @@
         <v>4.96787</v>
       </c>
       <c r="B117" t="n">
-        <v>0.00195214505369416</v>
+        <v>0.001954506354823341</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>0.0001048231815470909</v>
       </c>
       <c r="D117" t="n">
-        <v>0.000103168447349236</v>
+        <v>4.027894719294465e-05</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.629347328006696e-05</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.06777100696719</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.8396904085065116</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.4135542013934381</v>
       </c>
     </row>
     <row r="118">
@@ -2012,13 +3424,25 @@
         <v>4.97004</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001959512570876892</v>
+        <v>0.001962472614056256</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>0.0001091084650742414</v>
       </c>
       <c r="D118" t="n">
-        <v>9.970334767764612e-05</v>
+        <v>4.059925236495198e-05</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.740688790828765e-05</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3.879781834101042</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.5668511624484274</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.7759563668202084</v>
       </c>
     </row>
     <row r="119">
@@ -2026,13 +3450,25 @@
         <v>4.9728</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001855628355208005</v>
+        <v>0.001857813817391512</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>0.0001084440459619483</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0001063784073022986</v>
+        <v>3.820028153013677e-05</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.308413115402705e-05</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.09782613903233</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.8354500796856311</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.419565227806466</v>
       </c>
     </row>
     <row r="120">
@@ -2040,13 +3476,25 @@
         <v>4.97463</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001808890379764434</v>
+        <v>0.00181070260378125</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>8.616620036916499e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>8.574025306954252e-05</v>
+        <v>3.736546142753921e-05</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.12809874733692e-05</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.571175477603259</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.9047129176746467</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.3142350955206518</v>
       </c>
     </row>
     <row r="121">
@@ -2054,13 +3502,25 @@
         <v>4.98471</v>
       </c>
       <c r="B121" t="n">
-        <v>0.00148711635234363</v>
+        <v>0.001488874255697678</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>5.863258007854388e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>5.846446446022523e-05</v>
+        <v>3.076213869470098e-05</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5.030321112780396e-05</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.814839025199419</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.874126150562492</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.3629678050398837</v>
       </c>
     </row>
     <row r="122">
@@ -2068,13 +3528,25 @@
         <v>4.990069999999999</v>
       </c>
       <c r="B122" t="n">
-        <v>0.001386511208271627</v>
+        <v>0.001388838449567492</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>8.93060304789432e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>8.262983191386094e-05</v>
+        <v>2.874803067011608e-05</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.784449289252399e-05</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4.132381339528285</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.5305181280618932</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.826476267905657</v>
       </c>
     </row>
     <row r="123">
@@ -2082,13 +3554,25 @@
         <v>4.994669999999999</v>
       </c>
       <c r="B123" t="n">
-        <v>0.001163196803391998</v>
+        <v>0.001164589779362371</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>8.227166201488201e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>8.145838282316641e-05</v>
+        <v>2.395410775907495e-05</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.967255000148921e-05</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2.017907212632345</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.8466617250036788</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.4035814425264689</v>
       </c>
     </row>
     <row r="124">
@@ -2096,13 +3580,25 @@
         <v>5.00464</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0009031808245700953</v>
+        <v>0.0009039067684291867</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>4.287789645165204e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>4.305017464385379e-05</v>
+        <v>1.864554314391941e-05</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.05559516057547e-05</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.130097521939635</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.9514051754648511</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.226019504387927</v>
       </c>
     </row>
     <row r="125">
@@ -2110,13 +3606,25 @@
         <v>5.00999</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0008262320218932805</v>
+        <v>0.0008274543363037041</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>4.06032289467028e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>3.843895045143713e-05</v>
+        <v>1.72546163935634e-05</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.840288419729274e-05</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3.188672063956608</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.6709241832076415</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.6377344127913217</v>
       </c>
     </row>
     <row r="126">
@@ -2124,13 +3632,25 @@
         <v>5.01484</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0007110850884910338</v>
+        <v>0.0007118905924619548</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>5.611929283523087e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>5.583779315596991e-05</v>
+        <v>1.46919129635525e-05</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.439383975426087e-05</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.895437775586623</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.8634158079432812</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.3790875551173245</v>
       </c>
     </row>
     <row r="127">
@@ -2138,13 +3658,25 @@
         <v>5.01774</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0006761614097223254</v>
+        <v>0.000676754923138997</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>3.024835327066763e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>3.031140274056199e-05</v>
+        <v>1.411177045815766e-05</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.304472315169551e-05</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.30130560257778</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.9347972761751778</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.2602611205155559</v>
       </c>
     </row>
     <row r="128">
@@ -2152,13 +3684,25 @@
         <v>5.01786</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0006791931745755216</v>
+        <v>0.0006797566425005398</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>2.905103412803183e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>2.944329519424075e-05</v>
+        <v>1.416191012224441e-05</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.310778481933745e-05</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.131206902529063</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.9513044022972593</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.2262413805058125</v>
       </c>
     </row>
     <row r="129">
@@ -2166,13 +3710,25 @@
         <v>5.019819999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0006662817765545883</v>
+        <v>0.0006677200070200354</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>3.617026625995725e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>3.722323270360127e-05</v>
+        <v>1.401847250749409e-05</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.272049256676791e-05</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2.533929772987436</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.771376735281641</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.5067859545974873</v>
       </c>
     </row>
     <row r="130">
@@ -2180,13 +3736,25 @@
         <v>5.0248</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0006487389187847786</v>
+        <v>0.0006498233873140474</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>2.452291180887034e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>2.507682238671848e-05</v>
+        <v>1.40416300982657e-05</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.262730574106353e-05</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.738888374166282</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.8839645218280766</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.3477776748332564</v>
       </c>
     </row>
     <row r="131">
@@ -2194,13 +3762,25 @@
         <v>5.027830000000001</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0006535031332814056</v>
+        <v>0.0006544801114619185</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>2.679966837294286e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>2.780374047859834e-05</v>
+        <v>1.425170152112691e-05</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.299153845320085e-05</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.006532709793037</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.8482403743526599</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.4013065419586074</v>
       </c>
     </row>
     <row r="132">
@@ -2208,13 +3788,25 @@
         <v>5.0301</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0006691519059691606</v>
+        <v>0.0006697941534559488</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>2.141740823686372e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>1.825855915096045e-05</v>
+        <v>1.486019675650107e-05</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.428461833099335e-05</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4.078875071946039</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.5381167246352299</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.8157750143892079</v>
       </c>
     </row>
     <row r="133">
@@ -2222,13 +3814,25 @@
         <v>5.032780000000001</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0007370509238847617</v>
+        <v>0.0007376500180148201</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>3.952592917364796e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>4.000755690080545e-05</v>
+        <v>1.596449508180329e-05</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.594167004018149e-05</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.181433560337795</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.94664611433946</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.2362867120675591</v>
       </c>
     </row>
     <row r="134">
@@ -2236,13 +3840,25 @@
         <v>5.0359</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0008054342635358626</v>
+        <v>0.0008062216734970501</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1.301822660749129e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>1.276297689348513e-05</v>
+        <v>1.746308535991587e-05</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.795170511989976e-05</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.321972053780079</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.9326546133978431</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.2643944107560157</v>
       </c>
     </row>
     <row r="135">
@@ -2250,13 +3866,25 @@
         <v>5.03871</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0008437452255279419</v>
+        <v>0.0008447781746576477</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1.643018868963521e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>1.515458662109844e-05</v>
+        <v>1.829274791890586e-05</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.928329345165244e-05</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.949240091711506</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.8561231308611874</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.3898480183423011</v>
       </c>
     </row>
     <row r="136">
@@ -2264,13 +3892,25 @@
         <v>5.041980000000001</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0008578428988772951</v>
+        <v>0.0008594899597745631</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>3.870394466082934e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>4.075966056497836e-05</v>
+        <v>1.871451401465762e-05</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.035680720500791e-05</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.754547115326852</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.8819573562270684</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.3509094230653703</v>
       </c>
     </row>
     <row r="137">
@@ -2278,13 +3918,25 @@
         <v>5.04479</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0008339942586812214</v>
+        <v>0.0008354653092506113</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>2.194926734960204e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>2.151105002158927e-05</v>
+        <v>1.810582901210944e-05</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.897644746974049e-05</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2.229437769037398</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.8165726561993458</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.4458875538074795</v>
       </c>
     </row>
     <row r="138">
@@ -2292,13 +3944,25 @@
         <v>5.04997</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0007987410165361911</v>
+        <v>0.0007992791690293095</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>4.983203758620951e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>4.856185494560629e-05</v>
+        <v>1.735128946471615e-05</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.852628292704836e-05</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.010544587202951</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.8476840756617947</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.4021089174405902</v>
       </c>
     </row>
     <row r="139">
@@ -2306,13 +3970,25 @@
         <v>5.05484</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0006839377571731657</v>
+        <v>0.0006850731936036986</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>2.378995992612077e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>2.460551798314744e-05</v>
+        <v>1.472749682078809e-05</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.372513067514203e-05</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.738045261230057</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.8840722727252348</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.3476090522460114</v>
       </c>
     </row>
     <row r="140">
@@ -2320,13 +3996,25 @@
         <v>5.06488</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0004281959919011957</v>
+        <v>0.0004285401459819486</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1.290818057380234e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>1.318799836945155e-05</v>
+        <v>9.230686129578324e-06</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.48844536109804e-05</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.9750978495947359</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.9645491922059362</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.1950195699189472</v>
       </c>
     </row>
     <row r="141">
@@ -2334,13 +4022,25 @@
         <v>5.06991</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0003620101173943101</v>
+        <v>0.0003625830682141057</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1.592149187244405e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>1.469008216446441e-05</v>
+        <v>7.938489805511711e-06</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.30505564974067e-05</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3.652460318809437</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.6004542140430497</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.7304920637618875</v>
       </c>
     </row>
     <row r="142">
@@ -2348,13 +4048,25 @@
         <v>5.07448</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0002887653925569056</v>
+        <v>0.0002891308982115171</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1.223126191562986e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>1.239204711392413e-05</v>
+        <v>6.18744071459939e-06</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9.985901364785943e-06</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.745052776367432</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.8831757041305812</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.3490105552734863</v>
       </c>
     </row>
     <row r="143">
@@ -2362,13 +4074,25 @@
         <v>5.08419</v>
       </c>
       <c r="B143" t="n">
-        <v>0.000223571989702512</v>
+        <v>0.0002238953253001104</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1.979860042398727e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>2.024339757154172e-05</v>
+        <v>4.862374531614097e-06</v>
+      </c>
+      <c r="E143" t="n">
+        <v>8.017821148542093e-06</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.666378075373909</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.8931080253286517</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.3332756150747818</v>
       </c>
     </row>
     <row r="144">
@@ -2376,13 +4100,25 @@
         <v>5.08999</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002124119812289989</v>
+        <v>0.0002134074746607994</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>5.499933164183657e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>6.35321469619009e-06</v>
+        <v>4.773443288823763e-06</v>
+      </c>
+      <c r="E144" t="n">
+        <v>7.789125065439788e-06</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4.440828545538201</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.487839195761987</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.8881657091076403</v>
       </c>
     </row>
     <row r="145">
@@ -2390,13 +4126,25 @@
         <v>5.093719999999999</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0002031813785323692</v>
+        <v>0.0002039761844673985</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1.109641472013886e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>1.69913572083293e-06</v>
+        <v>5.156533403384652e-06</v>
+      </c>
+      <c r="E145" t="n">
+        <v>8.112835324155826e-06</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2.090030594992137</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.8365526007070574</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.4180061189984274</v>
       </c>
     </row>
     <row r="146">
@@ -2404,13 +4152,25 @@
         <v>5.09676</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0002135257864269098</v>
+        <v>0.0002135891960690226</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1.067579402654851e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>1.083764004241746e-05</v>
+        <v>5.171999038029796e-06</v>
+      </c>
+      <c r="E146" t="n">
+        <v>8.373904933725879e-06</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.2764373491779683</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.9980628947162592</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.05528746983559365</v>
       </c>
     </row>
     <row r="147">
@@ -2418,13 +4178,25 @@
         <v>5.09889</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0002032000363927374</v>
+        <v>0.000203650438093925</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1.28101790198049e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>1.29973713665642e-05</v>
+        <v>5.28045378331564e-06</v>
+      </c>
+      <c r="E147" t="n">
+        <v>8.633735492918664e-06</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4.445763455300434</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.4871727322054574</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.8891526910600869</v>
       </c>
     </row>
     <row r="148">
@@ -2432,13 +4204,25 @@
         <v>5.09999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0002014780368326777</v>
+        <v>0.0002014717635038607</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>3.063857600558263e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>3.092294920278952e-05</v>
+        <v>5.347963572276919e-06</v>
+      </c>
+      <c r="E148" t="n">
+        <v>8.85232830740869e-06</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.936666125892587</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.8578372726149284</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.3873332251785174</v>
       </c>
     </row>
     <row r="149">
@@ -2446,13 +4230,25 @@
         <v>5.10043</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0002020832380252625</v>
+        <v>0.0002022382027491249</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1.082595545285407e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>1.113527712946762e-05</v>
+        <v>5.40130163326244e-06</v>
+      </c>
+      <c r="E149" t="n">
+        <v>8.674614996515109e-06</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2.118715447916603</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.8324866476337145</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.4237430895833206</v>
       </c>
     </row>
     <row r="150">
@@ -2460,13 +4256,25 @@
         <v>5.100709999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0002000144565522636</v>
+        <v>0.0001998499315915187</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1.275443808529828e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>1.234671097003847e-05</v>
+        <v>5.336064864185506e-06</v>
+      </c>
+      <c r="E150" t="n">
+        <v>8.674889893961875e-06</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3.674206930182146</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.597206996106572</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.7348413860364292</v>
       </c>
     </row>
     <row r="151">
@@ -2474,13 +4282,25 @@
         <v>5.10288</v>
       </c>
       <c r="B151" t="n">
-        <v>0.000198026680295392</v>
+        <v>0.0001980726110162964</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>3.447188356251477e-06</v>
       </c>
       <c r="D151" t="n">
-        <v>3.148642759490239e-06</v>
+        <v>5.32785291474736e-06</v>
+      </c>
+      <c r="E151" t="n">
+        <v>8.366880666408302e-06</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.450260832065785</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.918737340964574</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.2900521664131569</v>
       </c>
     </row>
     <row r="152">
@@ -2488,13 +4308,25 @@
         <v>5.10486</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001922016660835382</v>
+        <v>0.0001928970106087032</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1.529143370698855e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>1.424330477218357e-05</v>
+        <v>5.116222754369862e-06</v>
+      </c>
+      <c r="E152" t="n">
+        <v>8.344929932908166e-06</v>
+      </c>
+      <c r="F152" t="n">
+        <v>8.100634566356147</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.1507759739796112</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.620126913271229</v>
       </c>
     </row>
     <row r="153">
@@ -2502,13 +4334,25 @@
         <v>5.1069</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001914314102514397</v>
+        <v>0.000191714776128698</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-2.226259469814479e-07</v>
       </c>
       <c r="D153" t="n">
-        <v>2.59836332274186e-08</v>
+        <v>5.232080496385013e-06</v>
+      </c>
+      <c r="E153" t="n">
+        <v>8.247695591180434e-06</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.087249889670143</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.9552260207568178</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.2174499779340286</v>
       </c>
     </row>
     <row r="154">
@@ -2516,13 +4360,25 @@
         <v>5.10878</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001773717586082732</v>
+        <v>0.0001775789509849329</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>2.534739153300697e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>2.557393519207962e-05</v>
+        <v>4.761007761386738e-06</v>
+      </c>
+      <c r="E154" t="n">
+        <v>7.889470868756289e-06</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4.235034984465537</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.516096574463639</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.8470069968931074</v>
       </c>
     </row>
     <row r="155">
@@ -2530,13 +4386,25 @@
         <v>5.110040000000001</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001784597610638294</v>
+        <v>0.000179808263364393</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>7.088972966499832e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>8.040321327173146e-06</v>
+        <v>4.976789273406911e-06</v>
+      </c>
+      <c r="E155" t="n">
+        <v>8.053077800886392e-06</v>
+      </c>
+      <c r="F155" t="n">
+        <v>8.55382106831231</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.1282397287520995</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1.710764213662462</v>
       </c>
     </row>
     <row r="156">
@@ -2544,13 +4412,25 @@
         <v>5.11075</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001798727842905272</v>
+        <v>0.0001795424408455295</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>-1.610403888053949e-06</v>
       </c>
       <c r="D156" t="n">
-        <v>-2.599284979582713e-06</v>
+        <v>4.972515224032857e-06</v>
+      </c>
+      <c r="E156" t="n">
+        <v>7.726341484217028e-06</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6.881892886026336</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.2295733220925145</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.376378577205267</v>
       </c>
     </row>
     <row r="157">
@@ -2558,13 +4438,25 @@
         <v>5.11384</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001796569126146463</v>
+        <v>0.0001794674718512829</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>-5.104412673562691e-06</v>
       </c>
       <c r="D157" t="n">
-        <v>-5.496833105142793e-06</v>
+        <v>4.856669740066614e-06</v>
+      </c>
+      <c r="E157" t="n">
+        <v>7.570665964119177e-06</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3.443808077276823</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.6319067145660096</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.6887616154553646</v>
       </c>
     </row>
     <row r="158">
@@ -2572,13 +4464,25 @@
         <v>5.1188</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0001581733179122339</v>
+        <v>0.0001593199994142177</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1.138071755935247e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>1.217822362329059e-05</v>
+        <v>4.128005327840864e-06</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.743189355007664e-06</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6.297406330304981</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.2783460436320617</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1.259481266060996</v>
       </c>
     </row>
     <row r="159">
@@ -2586,13 +4490,25 @@
         <v>5.123769999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0001382391017434186</v>
+        <v>0.0001382228094777924</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>5.645014349194336e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>5.345146647371921e-06</v>
+        <v>3.844982077292121e-06</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.082881774780165e-06</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6.221462507339337</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.2852622520482038</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.244292501467867</v>
       </c>
     </row>
     <row r="160">
@@ -2600,13 +4516,25 @@
         <v>5.12852</v>
       </c>
       <c r="B160" t="n">
-        <v>0.000128016271750823</v>
+        <v>0.0001279296369498221</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>4.429256892056314e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>3.753258286853408e-06</v>
+        <v>3.321767324777411e-06</v>
+      </c>
+      <c r="E160" t="n">
+        <v>5.237870132941977e-06</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.743630080365819</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.7394377488924828</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.5487260160731638</v>
       </c>
     </row>
     <row r="161">
@@ -2614,13 +4542,25 @@
         <v>5.12994</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001267176409526092</v>
+        <v>0.0001265259510069737</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1.025501549336091e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>1.013488544204529e-05</v>
+        <v>3.525961838636025e-06</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5.716834505254225e-06</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.891089457886306</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.8640003417412451</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.3782178915772611</v>
       </c>
     </row>
     <row r="162">
@@ -2628,13 +4568,25 @@
         <v>5.13381</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001571157516743606</v>
+        <v>0.0001573388382498121</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>8.348372106135112e-07</v>
       </c>
       <c r="D162" t="n">
-        <v>1.182938524139045e-07</v>
+        <v>3.921405670138234e-06</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6.150454720949648e-06</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.783875378694806</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.7332631925648728</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.5567750757389611</v>
       </c>
     </row>
     <row r="163">
@@ -2642,13 +4594,25 @@
         <v>5.13888</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002719157221177647</v>
+        <v>0.0002725554760999381</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1.215547672771324e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>1.247552843784479e-05</v>
+        <v>6.380125061265598e-06</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.015217681856318e-05</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5.209930140996499</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.3908011029421413</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.0419860281993</v>
       </c>
     </row>
     <row r="164">
@@ -2656,13 +4620,25 @@
         <v>5.14165</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003335372897053947</v>
+        <v>0.0003338425665306906</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>9.737422756686271e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>9.838022641016008e-06</v>
+        <v>7.57376262981237e-06</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.218747896147323e-05</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.6889987636586125</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.9835669885464904</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.1377997527317225</v>
       </c>
     </row>
     <row r="165">
@@ -2670,13 +4646,25 @@
         <v>5.144740000000001</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0003554250358899809</v>
+        <v>0.0003555142441042658</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1.838375054689993e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>1.855770879943446e-05</v>
+        <v>7.98389894729397e-06</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.297884455323702e-05</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.7252520783516561</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.9815540892702816</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.1450504156703312</v>
       </c>
     </row>
     <row r="166">
@@ -2684,13 +4672,25 @@
         <v>5.14799</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0003611230116674912</v>
+        <v>0.0003610964890050489</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1.223978241177869e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>1.212036184529982e-05</v>
+        <v>8.175479620395407e-06</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.317689984471993e-05</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.8791704863772803</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.9717112549275457</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.1758340972754561</v>
       </c>
     </row>
     <row r="167">
@@ -2698,13 +4698,25 @@
         <v>5.15001</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0003711695250792962</v>
+        <v>0.0003720852724189631</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>3.236205846210682e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>3.264946594673478e-05</v>
+        <v>8.542848796091437e-06</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.414132098016991e-05</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3.266992810456614</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.6588987328266463</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.6533985620913227</v>
       </c>
     </row>
     <row r="168">
@@ -2712,13 +4724,25 @@
         <v>5.150980000000001</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0003761492016622522</v>
+        <v>0.0003762851453683725</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1.248851180199467e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>1.259653081617515e-05</v>
+        <v>8.324687231777326e-06</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.345677583497523e-05</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.7014819461589393</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.9828872434843493</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.1402963892317879</v>
       </c>
     </row>
     <row r="169">
@@ -2726,13 +4750,25 @@
         <v>5.15704</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0003614848151663354</v>
+        <v>0.0003619355423354181</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1.522593671247506e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>1.575395987004052e-05</v>
+        <v>7.948372307639775e-06</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.291221198029755e-05</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.153920792106417</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.9492209100322277</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.2307841584212835</v>
       </c>
     </row>
     <row r="170">
@@ -2740,13 +4776,25 @@
         <v>5.15937</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0003323607352496124</v>
+        <v>0.0003327956959332031</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>2.264191741098439e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>2.319693977880747e-05</v>
+        <v>7.213274415219794e-06</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.180822027151021e-05</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.586770812600456</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.9028444989286266</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.3173541625200912</v>
       </c>
     </row>
     <row r="171">
@@ -2754,13 +4802,25 @@
         <v>5.17005</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0002099751754642602</v>
+        <v>0.0002102958401170678</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1.094823318840792e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>8.871963784493665e-06</v>
+        <v>4.845740570555723e-06</v>
+      </c>
+      <c r="E171" t="n">
+        <v>7.944120646496549e-06</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7.228780030651491</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.2041740703998877</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1.445756006130298</v>
       </c>
     </row>
     <row r="172">
@@ -2768,13 +4828,25 @@
         <v>5.18984</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001372236901604385</v>
+        <v>0.0001374730958884659</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>8.693780230403621e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>7.229564080514319e-06</v>
+        <v>3.087711216997571e-06</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.125885617507362e-06</v>
+      </c>
+      <c r="F172" t="n">
+        <v>7.54302020503347</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.1832841795073271</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1.508604041006694</v>
       </c>
     </row>
     <row r="173">
@@ -2782,13 +4854,25 @@
         <v>5.210030000000001</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001255959499044362</v>
+        <v>0.0001256441630968421</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>8.143943782039831e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>7.760059525736803e-06</v>
+        <v>2.898358452017632e-06</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4.754007439288357e-06</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3.029080413733423</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.6955023129128575</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.6058160827466845</v>
       </c>
     </row>
     <row r="174">
@@ -2796,13 +4880,25 @@
         <v>5.23003</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001454536732588352</v>
+        <v>0.0001453944835069365</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1.365555167678794e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>1.362901767678644e-05</v>
+        <v>3.566234605648331e-06</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5.879668813170403e-06</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.04347990309013</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.9589831359923651</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.208695980618026</v>
       </c>
     </row>
     <row r="175">
@@ -2810,13 +4906,25 @@
         <v>5.2395</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002013856948800237</v>
+        <v>0.0002015843789671577</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1.058048502064536e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>1.063378847521253e-05</v>
+        <v>4.535161684460019e-06</v>
+      </c>
+      <c r="E175" t="n">
+        <v>7.308637368979016e-06</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2.214435416428831</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.8187481465362036</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.4428870832857662</v>
       </c>
     </row>
     <row r="176">
@@ -2824,13 +4932,25 @@
         <v>5.24306</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002251550881645288</v>
+        <v>0.0002257530733391731</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>8.238484779117278e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>7.917889825144673e-06</v>
+        <v>5.480321837887563e-06</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8.909371807734146e-06</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4.792561106486474</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.4417173657459317</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.9585122212972947</v>
       </c>
     </row>
     <row r="177">
@@ -2838,13 +4958,25 @@
         <v>5.25013</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003411678604608911</v>
+        <v>0.0003415458532550308</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1.439846037052707e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>1.462262323183273e-05</v>
+        <v>8.323978443075987e-06</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.343220173563308e-05</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1.927780735026729</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.859045013900729</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.3855561470053458</v>
       </c>
     </row>
     <row r="178">
@@ -2852,13 +4984,25 @@
         <v>5.25994</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004584939684874515</v>
+        <v>0.0004593214458974838</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>6.029516756712367e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>5.776775295370181e-05</v>
+        <v>1.073080946040655e-05</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.790002521708112e-05</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7.570782490077895</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.18153110540988</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1.514156498015579</v>
       </c>
     </row>
     <row r="179">
@@ -2866,13 +5010,25 @@
         <v>5.26504</v>
       </c>
       <c r="B179" t="n">
-        <v>0.000479264267960788</v>
+        <v>0.0004796621542911472</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>2.914069725777255e-06</v>
       </c>
       <c r="D179" t="n">
-        <v>2.443138688384234e-06</v>
+        <v>1.189009265861368e-05</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.885073970636647e-05</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.262850081320358</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.811707438020725</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.4525700162640717</v>
       </c>
     </row>
     <row r="180">
@@ -2880,13 +5036,25 @@
         <v>5.26998</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0004553820737331774</v>
+        <v>0.0004560760311381394</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>3.254427683162687e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>3.348453198863361e-05</v>
+        <v>1.134570893539547e-05</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.835727422885816e-05</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.251804831675237</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.8133187631279672</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.4503609663350475</v>
       </c>
     </row>
     <row r="181">
@@ -2894,13 +5062,25 @@
         <v>5.27496</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0004093530017362162</v>
+        <v>0.0004094579121848522</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>2.275242700899101e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>2.32068448393572e-05</v>
+        <v>1.055060804168087e-05</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.703675762011746e-05</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.4837028489057936</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.9927078795796562</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.09674056978115872</v>
       </c>
     </row>
     <row r="182">
@@ -2908,13 +5088,25 @@
         <v>5.27502</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0004085426785517182</v>
+        <v>0.0004099164320973499</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>4.978835955076003e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>5.179280973856629e-05</v>
+        <v>9.548154644649472e-06</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.580375367451645e-05</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1.812268956134097</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.8744632213007568</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.3624537912268194</v>
       </c>
     </row>
     <row r="183">
@@ -2922,13 +5114,25 @@
         <v>5.279809999999999</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0003630903457090952</v>
+        <v>0.0003640488234105062</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>4.330452376436205e-06</v>
       </c>
       <c r="D183" t="n">
-        <v>4.339484680408505e-06</v>
+        <v>1.018832689795424e-05</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.60058239622955e-05</v>
+      </c>
+      <c r="F183" t="n">
+        <v>5.012925948487176</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.4143047245199452</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1.002585189697435</v>
       </c>
     </row>
     <row r="184">
@@ -2936,13 +5140,25 @@
         <v>5.28495</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0003108279139785966</v>
+        <v>0.0003105201855704832</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1.70978283968929e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>1.555886295934602e-05</v>
+        <v>9.450135315301503e-06</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.516643635366532e-05</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7.087484503787163</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.2142148637533433</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1.417496900757433</v>
       </c>
     </row>
     <row r="185">
@@ -2950,13 +5166,25 @@
         <v>5.29016</v>
       </c>
       <c r="B185" t="n">
-        <v>0.000282425554437391</v>
+        <v>0.0002824683243079159</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>9.386937683787097e-06</v>
       </c>
       <c r="D185" t="n">
-        <v>8.731727221557036e-06</v>
+        <v>7.895121458866099e-06</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.247376728364937e-05</v>
+      </c>
+      <c r="F185" t="n">
+        <v>9.771635550582232</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.08197056434887517</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1.954327110116446</v>
       </c>
     </row>
     <row r="186">
@@ -2964,13 +5192,25 @@
         <v>5.29294</v>
       </c>
       <c r="B186" t="n">
-        <v>0.000286754717368634</v>
+        <v>0.0002872441586728117</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>3.706749184389089e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>3.773619668142259e-05</v>
+        <v>7.994748172049547e-06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.30882611014897e-05</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2.003591430596603</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.8486478700704894</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.4007182861193207</v>
       </c>
     </row>
     <row r="187">
@@ -2978,13 +5218,25 @@
         <v>5.29767</v>
       </c>
       <c r="B187" t="n">
-        <v>0.000280540452968105</v>
+        <v>0.0002805447396819122</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>2.569030235403987e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>2.35260632483521e-05</v>
+        <v>7.107792440695109e-06</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.161856670072281e-05</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8.208478024059387</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.145114102700914</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.641695604811877</v>
       </c>
     </row>
     <row r="188">
@@ -2992,13 +5244,25 @@
         <v>5.29972</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0002748833438298512</v>
+        <v>0.0002751604983086574</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>2.118266826796027e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>1.967175105240974e-05</v>
+        <v>7.279554480000574e-06</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.159565714896234e-05</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4.988885846265547</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.4172380821739724</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.9977771692531094</v>
       </c>
     </row>
     <row r="189">
@@ -3006,13 +5270,25 @@
         <v>5.30238</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002643034275724245</v>
+        <v>0.0002650738172963949</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1.162784174735281e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>4.521329756067708e-06</v>
+        <v>7.22087997558465e-06</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.185719882029822e-05</v>
+      </c>
+      <c r="F189" t="n">
+        <v>21.43964793604143</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0006688666457826953</v>
+      </c>
+      <c r="H189" t="n">
+        <v>4.287929587208287</v>
       </c>
     </row>
     <row r="190">
@@ -3020,13 +5296,25 @@
         <v>5.30823</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002932049061723509</v>
+        <v>0.0002941663398343904</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1.306281149766439e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>1.105847752367173e-05</v>
+        <v>7.036364259268336e-06</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.139628823000842e-05</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8.947954704888009</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.1111581635329193</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1.789590940977602</v>
       </c>
     </row>
     <row r="191">
@@ -3034,13 +5322,25 @@
         <v>5.312880000000001</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0003410840042929648</v>
+        <v>0.0003413910095095451</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>2.640158818583566e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>2.626127385652379e-05</v>
+        <v>8.1733374728865e-06</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.338960977413015e-05</v>
+      </c>
+      <c r="F191" t="n">
+        <v>3.898250450138113</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.56415656977023</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.7796500900276226</v>
       </c>
     </row>
     <row r="192">
@@ -3048,13 +5348,25 @@
         <v>5.31752</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0003864367617403987</v>
+        <v>0.0003875314875770607</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>6.828717054003315e-06</v>
       </c>
       <c r="D192" t="n">
-        <v>3.21932244811212e-06</v>
+        <v>9.14942935126958e-06</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.473775859365397e-05</v>
+      </c>
+      <c r="F192" t="n">
+        <v>9.800250488017191</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.08109699646695523</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.960050097603438</v>
       </c>
     </row>
     <row r="193">
@@ -3062,13 +5374,25 @@
         <v>5.32281</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004373039634476734</v>
+        <v>0.0004384564631324872</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>2.405976814169055e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>2.123009325039319e-05</v>
+        <v>1.00455787520864e-05</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.651853814628103e-05</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6.411625150273161</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.2682001037283877</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1.282325030054632</v>
       </c>
     </row>
     <row r="194">
@@ -3076,13 +5400,25 @@
         <v>5.32768</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0005089717520567179</v>
+        <v>0.0005095798746069032</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>4.428701166072231e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>4.143652495423073e-05</v>
+        <v>1.151304446492543e-05</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.914201186776898e-05</v>
+      </c>
+      <c r="F194" t="n">
+        <v>4.352487423670476</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.4998592436821092</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.8704974847340953</v>
       </c>
     </row>
     <row r="195">
@@ -3090,13 +5426,25 @@
         <v>5.33288</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0005724395016889848</v>
+        <v>0.0005726788235305503</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>4.985840639959373e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>4.984992362336358e-05</v>
+        <v>1.293044952568806e-05</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.123345635787616e-05</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.400198697859709</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.9242915361538097</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.2800397395719418</v>
       </c>
     </row>
     <row r="196">
@@ -3104,13 +5452,25 @@
         <v>5.33291</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0005515668703595154</v>
+        <v>0.0005522353185451224</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>4.75895702626089e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>4.368357146841546e-05</v>
+        <v>1.221197819662676e-05</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.039868965351986e-05</v>
+      </c>
+      <c r="F196" t="n">
+        <v>5.405407246736094</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.3684298320293422</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1.081081449347219</v>
       </c>
     </row>
     <row r="197">
@@ -3118,13 +5478,25 @@
         <v>5.33747</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0005486012012572185</v>
+        <v>0.0005491635867882192</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>4.13855873149527e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>3.838204578305163e-05</v>
+        <v>1.196534917948046e-05</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.984962757162925e-05</v>
+      </c>
+      <c r="F197" t="n">
+        <v>4.175173542718185</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.5244809394980074</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.835034708543637</v>
       </c>
     </row>
     <row r="198">
@@ -3132,13 +5504,25 @@
         <v>5.34274</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0004976338405257741</v>
+        <v>0.0004979066206037754</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>3.827338342235953e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>3.87347209290557e-05</v>
+        <v>1.087893219948238e-05</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.784139438417838e-05</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.6793525997058922</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.9840826058297603</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.1358705199411784</v>
       </c>
     </row>
     <row r="199">
@@ -3146,13 +5530,25 @@
         <v>5.34293</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0004914358801851927</v>
+        <v>0.0004918999907646379</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>4.119880928230458e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>3.945350988900898e-05</v>
+        <v>1.062829495142637e-05</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.770203469587361e-05</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3.204807388620506</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.6684441154973452</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.6409614777241012</v>
       </c>
     </row>
     <row r="200">
@@ -3160,13 +5556,25 @@
         <v>5.34694</v>
       </c>
       <c r="B200" t="n">
-        <v>0.000432190749966721</v>
+        <v>0.0004332411031104108</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>3.369982090026382e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>3.473928460890412e-05</v>
+        <v>9.383334786554029e-06</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.535082108170279e-05</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2.303337974975357</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.8057764872714308</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.4606675949950714</v>
       </c>
     </row>
     <row r="201">
@@ -3174,13 +5582,25 @@
         <v>5.34826</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0004174589475931642</v>
+        <v>0.0004180180712605678</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>3.248431946268325e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>3.186028860337547e-05</v>
+        <v>8.966595102086358e-06</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.482601321871587e-05</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2.975050378832423</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.7038325099069866</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.5950100757664847</v>
       </c>
     </row>
     <row r="202">
@@ -3188,13 +5608,25 @@
         <v>5.34858</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0004056162769960686</v>
+        <v>0.000406006132143188</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>2.598340726563315e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>2.644002099772026e-05</v>
+        <v>8.706886538331632e-06</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.424560334232128e-05</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.333005886731806</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.9314990333640614</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.2666011773463611</v>
       </c>
     </row>
     <row r="203">
@@ -3202,13 +5634,25 @@
         <v>5.35205</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0005194891863541281</v>
+        <v>0.0005198307463743067</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>3.316347122635081e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>3.355230605466739e-05</v>
+        <v>1.152667325039734e-05</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.887384318876706e-05</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1.132419556010386</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.9511941424098138</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.2264839112020773</v>
       </c>
     </row>
     <row r="204">
@@ -3216,13 +5660,25 @@
         <v>5.3536</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0004545441615909213</v>
+        <v>0.000455077541462093</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>3.371868478362631e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>3.194932281934884e-05</v>
+        <v>9.650609921573536e-06</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.606032729893605e-05</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3.263362977184287</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.6594552920132262</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.6526725954368574</v>
       </c>
     </row>
     <row r="205">
@@ -3230,13 +5686,25 @@
         <v>5.3579</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004787226161828016</v>
+        <v>0.0004796617863815158</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1.96530132532929e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>2.05433122062943e-05</v>
+        <v>1.085343645728173e-05</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.760996963692033e-05</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.811546401919956</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.8745579349546121</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.3623092803839912</v>
       </c>
     </row>
     <row r="206">
@@ -3244,13 +5712,25 @@
         <v>5.35797</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0005236418236458804</v>
+        <v>0.0005245695043401855</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>4.239614297233996e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>3.992635469680175e-05</v>
+        <v>1.128337820925222e-05</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.88634665312318e-05</v>
+      </c>
+      <c r="F206" t="n">
+        <v>4.613180327064033</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.4648845612184263</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.9226360654128065</v>
       </c>
     </row>
     <row r="207">
@@ -3258,13 +5738,25 @@
         <v>5.359830000000001</v>
       </c>
       <c r="B207" t="n">
-        <v>0.000435412151731433</v>
+        <v>0.0004355469044395682</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>2.821494881641632e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>2.843612276186314e-05</v>
+        <v>9.862013071611237e-06</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.608365529223992e-05</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.066173469031777</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.9570538088573173</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.2132346938063553</v>
       </c>
     </row>
     <row r="208">
@@ -3272,13 +5764,25 @@
         <v>5.36189</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0004107642813316115</v>
+        <v>0.0004109426697840312</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>2.523742253621929e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>2.519935211972086e-05</v>
+        <v>9.372631103158319e-06</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.532091707318079e-05</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.49952561724341</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.9131245516989484</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.299905123448682</v>
       </c>
     </row>
     <row r="209">
@@ -3286,13 +5790,25 @@
         <v>5.36386</v>
       </c>
       <c r="B209" t="n">
-        <v>0.000389623073444305</v>
+        <v>0.0003902533735431211</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>2.602037353864416e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>2.619063705199206e-05</v>
+        <v>8.921084444952444e-06</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.462012332622935e-05</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2.488794991339064</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.7781816142148787</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.4977589982678127</v>
       </c>
     </row>
     <row r="210">
@@ -3300,13 +5816,25 @@
         <v>5.36605</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003667564082780872</v>
+        <v>0.0003668747203723424</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1.732749007094398e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>1.7428367348092e-05</v>
+        <v>8.525031315940601e-06</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.387443603891315e-05</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.7376346003087182</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.9808395321645315</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.1475269200617436</v>
       </c>
     </row>
     <row r="211">
@@ -3314,13 +5842,25 @@
         <v>5.368040000000001</v>
       </c>
       <c r="B211" t="n">
-        <v>0.000338475460616884</v>
+        <v>0.0003387396097862473</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1.848132509974952e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>1.859311523528314e-05</v>
+        <v>7.472574119057161e-06</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.215202928588384e-05</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.230483119427401</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.9419197082201988</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.2460966238854802</v>
       </c>
     </row>
     <row r="212">
@@ -3328,13 +5868,25 @@
         <v>5.36827</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003654360585236768</v>
+        <v>0.0003658018089348383</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>2.523121459246691e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>2.392901186638871e-05</v>
+        <v>7.992329410427313e-06</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.319911250018787e-05</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3.517255668930791</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.6207782492151792</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.7034511337861582</v>
       </c>
     </row>
     <row r="213">
@@ -3342,13 +5894,25 @@
         <v>5.36965</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003431976547083165</v>
+        <v>0.0003434979033299088</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1.203017713181828e-05</v>
       </c>
       <c r="D213" t="n">
-        <v>1.227698384612642e-05</v>
+        <v>7.870765132502504e-06</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.262307604980843e-05</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.756387924053881</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.8817206597888987</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.3512775848107762</v>
       </c>
     </row>
     <row r="214">
@@ -3356,13 +5920,25 @@
         <v>5.371490000000001</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0004117996848992176</v>
+        <v>0.0004124041886874207</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>2.699181420007409e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>2.453500611440567e-05</v>
+        <v>8.954552457040146e-06</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.482299572226442e-05</v>
+      </c>
+      <c r="F214" t="n">
+        <v>4.934857443426983</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.4238819554068856</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.9869714886853966</v>
       </c>
     </row>
     <row r="215">
@@ -3370,13 +5946,25 @@
         <v>5.373419999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002851169431415865</v>
+        <v>0.0002855297679174855</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>2.669429593506073e-05</v>
       </c>
       <c r="D215" t="n">
-        <v>2.597614263878625e-05</v>
+        <v>6.169906033971544e-06</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.027949893941244e-05</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4.072325631027616</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.5390505700662909</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.8144651262055232</v>
       </c>
     </row>
     <row r="216">
@@ -3384,13 +5972,25 @@
         <v>5.3748</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0001761960963368552</v>
+        <v>0.0001765386564641008</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1.233781693498782e-05</v>
       </c>
       <c r="D216" t="n">
-        <v>1.196399039223599e-05</v>
+        <v>3.932267946169989e-06</v>
+      </c>
+      <c r="E216" t="n">
+        <v>6.403558730906593e-06</v>
+      </c>
+      <c r="F216" t="n">
+        <v>4.767945570569298</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.444851772205638</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.9535891141138595</v>
       </c>
     </row>
     <row r="217">
@@ -3398,13 +5998,25 @@
         <v>5.38009</v>
       </c>
       <c r="B217" t="n">
-        <v>7.303922359847379e-05</v>
+        <v>7.308297516555962e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>5.379454358898077e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>4.844561824093898e-06</v>
+        <v>1.764962647816456e-06</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2.892309177283687e-06</v>
+      </c>
+      <c r="F217" t="n">
+        <v>5.824204471551345</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.3237021924419201</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1.164840894310269</v>
       </c>
     </row>
     <row r="218">
@@ -3412,13 +6024,25 @@
         <v>5.382919999999999</v>
       </c>
       <c r="B218" t="n">
-        <v>4.540669255110515e-05</v>
+        <v>4.553117406497514e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>2.322137715529961e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>2.35383099901084e-06</v>
+        <v>1.137825705871497e-06</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.859048689748186e-06</v>
+      </c>
+      <c r="F218" t="n">
+        <v>4.287968911681066</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.5087431354262411</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.8575937823362132</v>
       </c>
     </row>
     <row r="219">
@@ -3426,13 +6050,25 @@
         <v>5.38334</v>
       </c>
       <c r="B219" t="n">
-        <v>6.46056906545835e-05</v>
+        <v>6.467902331177632e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>6.13624201255693e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>5.732379983148065e-06</v>
+        <v>1.503207699004106e-06</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2.526917920554849e-06</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5.328046683229956</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.3771696494209934</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.065609336645991</v>
       </c>
     </row>
     <row r="220">
@@ -3440,13 +6076,25 @@
         <v>5.383859999999999</v>
       </c>
       <c r="B220" t="n">
-        <v>4.010829410083017e-05</v>
+        <v>4.010718954472849e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>2.321097963528084e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>2.307700829525428e-06</v>
+        <v>9.752114911100915e-07</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.583799955204705e-06</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1.145496678767799</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.9499981194482009</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.2290993357535598</v>
       </c>
     </row>
     <row r="221">
@@ -3454,13 +6102,25 @@
         <v>5.38596</v>
       </c>
       <c r="B221" t="n">
-        <v>3.255339433149722e-05</v>
+        <v>3.269251992863089e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>2.957169869168779e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>3.093602471249156e-06</v>
+        <v>8.011030533905279e-07</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.327205631593044e-06</v>
+      </c>
+      <c r="F221" t="n">
+        <v>4.150848359461826</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.5279083742977867</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.8301696718923651</v>
       </c>
     </row>
     <row r="222">
@@ -3468,13 +6128,25 @@
         <v>5.38986</v>
       </c>
       <c r="B222" t="n">
-        <v>2.774827227848146e-05</v>
+        <v>2.789093455088311e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>2.633141223258273e-06</v>
       </c>
       <c r="D222" t="n">
-        <v>2.747302147694349e-06</v>
+        <v>6.618631678515782e-07</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.106163562944929e-06</v>
+      </c>
+      <c r="F222" t="n">
+        <v>3.957522839025618</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.5555477301041268</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.7915045678051237</v>
       </c>
     </row>
     <row r="223">
@@ -3482,13 +6154,25 @@
         <v>5.39308</v>
       </c>
       <c r="B223" t="n">
-        <v>2.773634002862747e-05</v>
+        <v>2.821194933816225e-05</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>3.151715295280134e-06</v>
       </c>
       <c r="D223" t="n">
-        <v>3.553844990154551e-06</v>
+        <v>6.84663757003832e-07</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.153965916873842e-06</v>
+      </c>
+      <c r="F223" t="n">
+        <v>14.78519330267446</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.01132070844958799</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2.957038660534892</v>
       </c>
     </row>
     <row r="224">
@@ -3496,13 +6180,25 @@
         <v>5.40341</v>
       </c>
       <c r="B224" t="n">
-        <v>4.086166055064873e-05</v>
+        <v>4.090593199965498e-05</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>5.736078999610328e-06</v>
       </c>
       <c r="D224" t="n">
-        <v>5.408123184240099e-06</v>
+        <v>9.386150394811649e-07</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.594923600181274e-06</v>
+      </c>
+      <c r="F224" t="n">
+        <v>6.588523278288052</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.2530840900313855</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1.31770465565761</v>
       </c>
     </row>
     <row r="225">
@@ -3510,13 +6206,25 @@
         <v>5.41408</v>
       </c>
       <c r="B225" t="n">
-        <v>7.607006414070415e-05</v>
+        <v>7.610361490912712e-05</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>6.592079175148406e-06</v>
       </c>
       <c r="D225" t="n">
-        <v>6.32615932758152e-06</v>
+        <v>1.683816562519829e-06</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.818310278894863e-06</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2.303479972348354</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.8057556209064696</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.4606959944696707</v>
       </c>
     </row>
     <row r="226">
@@ -3524,13 +6232,25 @@
         <v>5.42436</v>
       </c>
       <c r="B226" t="n">
-        <v>8.520890251074611e-05</v>
+        <v>8.53285518940943e-05</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>7.43991081499126e-06</v>
       </c>
       <c r="D226" t="n">
-        <v>6.8527666851437e-06</v>
+        <v>1.889277799548367e-06</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3.17685380112116e-06</v>
+      </c>
+      <c r="F226" t="n">
+        <v>4.914402198314685</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.4264158230602588</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.9828804396629371</v>
       </c>
     </row>
     <row r="227">
@@ -3538,13 +6258,25 @@
         <v>5.43541</v>
       </c>
       <c r="B227" t="n">
-        <v>7.491066846002064e-05</v>
+        <v>7.499608009493121e-05</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>7.265860812755697e-06</v>
       </c>
       <c r="D227" t="n">
-        <v>6.682478415565569e-06</v>
+        <v>1.630238004894516e-06</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2.737518832135577e-06</v>
+      </c>
+      <c r="F227" t="n">
+        <v>4.886432308655955</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.4298969248014799</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.977286461731191</v>
       </c>
     </row>
     <row r="228">
@@ -3552,13 +6284,25 @@
         <v>5.43926</v>
       </c>
       <c r="B228" t="n">
-        <v>6.662370322401083e-05</v>
+        <v>6.663080496434497e-05</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>6.791806723460396e-06</v>
       </c>
       <c r="D228" t="n">
-        <v>6.618013777809029e-06</v>
+        <v>1.486016717455953e-06</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2.486949025158206e-06</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.771293263056315</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.8797984308728702</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.3542586526112629</v>
       </c>
     </row>
     <row r="229">
@@ -3566,13 +6310,25 @@
         <v>5.44082</v>
       </c>
       <c r="B229" t="n">
-        <v>6.891262179682266e-05</v>
+        <v>6.905074895594563e-05</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>4.249303085111194e-06</v>
       </c>
       <c r="D229" t="n">
-        <v>3.956519259253112e-06</v>
+        <v>1.61285072270483e-06</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2.686582324821341e-06</v>
+      </c>
+      <c r="F229" t="n">
+        <v>4.895832973385922</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.4287248224499688</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.9791665946771845</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/CSV/analytically/p1/a2/a2Fit.xlsx
+++ b/legendre_out/CSV/analytically/p1/a2/a2Fit.xlsx
@@ -423,7 +423,7 @@
         <v>176.2138899433837</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.442639507679079e-36</v>
       </c>
       <c r="H2" t="n">
         <v>35.24277798867674</v>
@@ -449,7 +449,7 @@
         <v>159.4644520280027</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.287340075385884e-32</v>
       </c>
       <c r="H3" t="n">
         <v>31.89289040560054</v>
@@ -475,7 +475,7 @@
         <v>150.3309381091144</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.135221203487187e-30</v>
       </c>
       <c r="H4" t="n">
         <v>30.06618762182288</v>
@@ -501,7 +501,7 @@
         <v>83.11312576064772</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.871185785040491e-16</v>
       </c>
       <c r="H5" t="n">
         <v>16.62262515212954</v>
@@ -527,7 +527,7 @@
         <v>96.87210904958329</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.40981940946279e-19</v>
       </c>
       <c r="H6" t="n">
         <v>19.37442180991666</v>
@@ -553,7 +553,7 @@
         <v>274.4498767766046</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.098977262915513e-57</v>
       </c>
       <c r="H7" t="n">
         <v>54.88997535532091</v>
@@ -579,7 +579,7 @@
         <v>81.4074897491483</v>
       </c>
       <c r="G8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>4.258998648014545e-16</v>
       </c>
       <c r="H8" t="n">
         <v>16.28149794982966</v>
@@ -605,7 +605,7 @@
         <v>149.7938830874084</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.47706612984798e-30</v>
       </c>
       <c r="H9" t="n">
         <v>29.95877661748168</v>
@@ -631,7 +631,7 @@
         <v>181.7828660240068</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.226628405420428e-37</v>
       </c>
       <c r="H10" t="n">
         <v>36.35657320480135</v>
@@ -657,7 +657,7 @@
         <v>101.0283356959472</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.20841442963205e-20</v>
       </c>
       <c r="H11" t="n">
         <v>20.20566713918943</v>
@@ -683,7 +683,7 @@
         <v>182.1909173352108</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.821735117249047e-37</v>
       </c>
       <c r="H12" t="n">
         <v>36.43818346704217</v>
@@ -709,7 +709,7 @@
         <v>314.2608612862372</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>8.590422275947727e-66</v>
       </c>
       <c r="H13" t="n">
         <v>62.85217225724745</v>
@@ -761,7 +761,7 @@
         <v>10.57938414331208</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06038764252795603</v>
+        <v>0.06038764252795605</v>
       </c>
       <c r="H15" t="n">
         <v>2.115876828662416</v>
@@ -787,7 +787,7 @@
         <v>76.58316423606303</v>
       </c>
       <c r="G16" t="n">
-        <v>4.329869796038111e-15</v>
+        <v>4.34605159446335e-15</v>
       </c>
       <c r="H16" t="n">
         <v>15.31663284721261</v>
@@ -813,7 +813,7 @@
         <v>21.95628386773742</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0005337124910151925</v>
+        <v>0.0005337124910152273</v>
       </c>
       <c r="H17" t="n">
         <v>4.391256773547484</v>
@@ -839,7 +839,7 @@
         <v>15.64324235823585</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00794000043348364</v>
+        <v>0.00794000043348362</v>
       </c>
       <c r="H18" t="n">
         <v>3.12864847164717</v>
@@ -865,7 +865,7 @@
         <v>89.54063507177939</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>8.391025035329795e-18</v>
       </c>
       <c r="H19" t="n">
         <v>17.90812701435588</v>
@@ -891,7 +891,7 @@
         <v>50.72043372921489</v>
       </c>
       <c r="G20" t="n">
-        <v>9.867714423350549e-10</v>
+        <v>9.867713949463509e-10</v>
       </c>
       <c r="H20" t="n">
         <v>10.14408674584298</v>
@@ -917,7 +917,7 @@
         <v>47.91021728229386</v>
       </c>
       <c r="G21" t="n">
-        <v>3.705012407984043e-09</v>
+        <v>3.705012370329833e-09</v>
       </c>
       <c r="H21" t="n">
         <v>9.582043456458772</v>
@@ -943,7 +943,7 @@
         <v>63.89856233648781</v>
       </c>
       <c r="G22" t="n">
-        <v>1.896149903757305e-12</v>
+        <v>1.896202633111127e-12</v>
       </c>
       <c r="H22" t="n">
         <v>12.77971246729756</v>
@@ -969,7 +969,7 @@
         <v>24.95195485212429</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001423417056448661</v>
+        <v>0.0001423417056448513</v>
       </c>
       <c r="H23" t="n">
         <v>4.990390970424857</v>
@@ -995,7 +995,7 @@
         <v>27.87107460667265</v>
       </c>
       <c r="G24" t="n">
-        <v>3.857295594300592e-05</v>
+        <v>3.857295594295876e-05</v>
       </c>
       <c r="H24" t="n">
         <v>5.57421492133453</v>
@@ -1021,7 +1021,7 @@
         <v>21.11155162993409</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0007716748774188043</v>
+        <v>0.0007716748774187666</v>
       </c>
       <c r="H25" t="n">
         <v>4.222310325986818</v>
@@ -1047,7 +1047,7 @@
         <v>36.97337403134038</v>
       </c>
       <c r="G26" t="n">
-        <v>6.063544443213331e-07</v>
+        <v>6.063544443600616e-07</v>
       </c>
       <c r="H26" t="n">
         <v>7.394674806268076</v>
@@ -1073,7 +1073,7 @@
         <v>19.56592464038876</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001507110956046165</v>
+        <v>0.001507110956046156</v>
       </c>
       <c r="H27" t="n">
         <v>3.913184928077752</v>
@@ -1125,7 +1125,7 @@
         <v>39.81724880638571</v>
       </c>
       <c r="G29" t="n">
-        <v>1.62559794403272e-07</v>
+        <v>1.62559794403222e-07</v>
       </c>
       <c r="H29" t="n">
         <v>7.963449761277142</v>
@@ -1151,7 +1151,7 @@
         <v>35.38262467445013</v>
       </c>
       <c r="G30" t="n">
-        <v>1.261950848263638e-06</v>
+        <v>1.261950848314538e-06</v>
       </c>
       <c r="H30" t="n">
         <v>7.076524934890026</v>
@@ -1177,7 +1177,7 @@
         <v>93.95926073893037</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>9.886104140808509e-19</v>
       </c>
       <c r="H31" t="n">
         <v>18.79185214778607</v>
@@ -1203,7 +1203,7 @@
         <v>66.16780159046256</v>
       </c>
       <c r="G32" t="n">
-        <v>6.414868636284154e-13</v>
+        <v>6.414621626578111e-13</v>
       </c>
       <c r="H32" t="n">
         <v>13.23356031809251</v>
@@ -1229,7 +1229,7 @@
         <v>10.70536775563172</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0575449400346757</v>
+        <v>0.05754494003467564</v>
       </c>
       <c r="H33" t="n">
         <v>2.141073551126345</v>
@@ -1281,7 +1281,7 @@
         <v>10.24835129835724</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06849648974065115</v>
+        <v>0.06849648974065116</v>
       </c>
       <c r="H35" t="n">
         <v>2.049670259671447</v>
@@ -1307,7 +1307,7 @@
         <v>15.05894147204816</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0101134367862683</v>
+        <v>0.01011343678626833</v>
       </c>
       <c r="H36" t="n">
         <v>3.011788294409631</v>
@@ -1333,7 +1333,7 @@
         <v>10.38645958260589</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06499698408226229</v>
+        <v>0.06499698408226233</v>
       </c>
       <c r="H37" t="n">
         <v>2.077291916521177</v>
@@ -1359,7 +1359,7 @@
         <v>9.374210003662997</v>
       </c>
       <c r="G38" t="n">
-        <v>0.09503731560857176</v>
+        <v>0.09503731560857172</v>
       </c>
       <c r="H38" t="n">
         <v>1.874842000732599</v>
@@ -1385,7 +1385,7 @@
         <v>12.01519697703164</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0345801391214241</v>
+        <v>0.03458013912142411</v>
       </c>
       <c r="H39" t="n">
         <v>2.403039395406327</v>
@@ -1411,7 +1411,7 @@
         <v>70.18926640953146</v>
       </c>
       <c r="G40" t="n">
-        <v>9.35918009759007e-14</v>
+        <v>9.359358627151253e-14</v>
       </c>
       <c r="H40" t="n">
         <v>14.03785328190629</v>
@@ -1437,7 +1437,7 @@
         <v>14.9528037138003</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01056591537808649</v>
+        <v>0.01056591537808652</v>
       </c>
       <c r="H41" t="n">
         <v>2.99056074276006</v>
@@ -1463,7 +1463,7 @@
         <v>6.564808874171622</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2550688373378616</v>
+        <v>0.2550688373378615</v>
       </c>
       <c r="H42" t="n">
         <v>1.312961774834324</v>
@@ -1489,7 +1489,7 @@
         <v>23.49672429170095</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0002711903706645868</v>
+        <v>0.0002711903706646187</v>
       </c>
       <c r="H43" t="n">
         <v>4.699344858340191</v>
@@ -1671,7 +1671,7 @@
         <v>11.25839458016435</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04649075883937748</v>
+        <v>0.04649075883937743</v>
       </c>
       <c r="H50" t="n">
         <v>2.25167891603287</v>
@@ -1697,7 +1697,7 @@
         <v>10.75566706215252</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05644546620023649</v>
+        <v>0.05644546620023647</v>
       </c>
       <c r="H51" t="n">
         <v>2.151133412430503</v>
@@ -1957,7 +1957,7 @@
         <v>6.626935355870684</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2498963282697417</v>
+        <v>0.2498963282697418</v>
       </c>
       <c r="H61" t="n">
         <v>1.325387071174137</v>
@@ -2087,7 +2087,7 @@
         <v>10.14424149883535</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07124988184147218</v>
+        <v>0.07124988184147221</v>
       </c>
       <c r="H66" t="n">
         <v>2.028848299767071</v>
@@ -2139,7 +2139,7 @@
         <v>5.396926991760915</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3693806132686044</v>
+        <v>0.3693806132686043</v>
       </c>
       <c r="H68" t="n">
         <v>1.079385398352183</v>
@@ -2165,7 +2165,7 @@
         <v>7.076512732637033</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2150118722724392</v>
+        <v>0.2150118722724393</v>
       </c>
       <c r="H69" t="n">
         <v>1.415302546527407</v>
@@ -2191,7 +2191,7 @@
         <v>15.89601539854571</v>
       </c>
       <c r="G70" t="n">
-        <v>0.007147311288878244</v>
+        <v>0.007147311288878273</v>
       </c>
       <c r="H70" t="n">
         <v>3.179203079709142</v>
@@ -2243,7 +2243,7 @@
         <v>15.5653588711346</v>
       </c>
       <c r="G72" t="n">
-        <v>0.008201028414349554</v>
+        <v>0.008201028414349514</v>
       </c>
       <c r="H72" t="n">
         <v>3.11307177422692</v>
@@ -2373,7 +2373,7 @@
         <v>5.192874761338746</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3927980228288046</v>
+        <v>0.3927980228288045</v>
       </c>
       <c r="H77" t="n">
         <v>1.038574952267749</v>
@@ -2451,7 +2451,7 @@
         <v>22.02863242977318</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0005170766357478485</v>
+        <v>0.0005170766357478524</v>
       </c>
       <c r="H80" t="n">
         <v>4.405726485954635</v>
@@ -2477,7 +2477,7 @@
         <v>9.386486472361581</v>
       </c>
       <c r="G81" t="n">
-        <v>0.09460651704741319</v>
+        <v>0.09460651704741323</v>
       </c>
       <c r="H81" t="n">
         <v>1.877297294472316</v>
@@ -2529,7 +2529,7 @@
         <v>5.382798025220923</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3709686917319597</v>
+        <v>0.3709686917319596</v>
       </c>
       <c r="H83" t="n">
         <v>1.076559605044185</v>
@@ -2555,7 +2555,7 @@
         <v>5.647362028958361</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3420574838122457</v>
+        <v>0.3420574838122456</v>
       </c>
       <c r="H84" t="n">
         <v>1.129472405791672</v>
@@ -2789,7 +2789,7 @@
         <v>5.916085355371555</v>
       </c>
       <c r="G93" t="n">
-        <v>0.3144700198081487</v>
+        <v>0.3144700198081486</v>
       </c>
       <c r="H93" t="n">
         <v>1.183217071074311</v>
@@ -4401,7 +4401,7 @@
         <v>8.55382106831231</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1282397287520995</v>
+        <v>0.1282397287520996</v>
       </c>
       <c r="H155" t="n">
         <v>1.710764213662462</v>
@@ -4427,7 +4427,7 @@
         <v>6.881892886026336</v>
       </c>
       <c r="G156" t="n">
-        <v>0.2295733220925145</v>
+        <v>0.2295733220925144</v>
       </c>
       <c r="H156" t="n">
         <v>1.376378577205267</v>
@@ -4505,7 +4505,7 @@
         <v>6.221462507339337</v>
       </c>
       <c r="G159" t="n">
-        <v>0.2852622520482038</v>
+        <v>0.2852622520482037</v>
       </c>
       <c r="H159" t="n">
         <v>1.244292501467867</v>
@@ -5181,7 +5181,7 @@
         <v>9.771635550582232</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08197056434887517</v>
+        <v>0.0819705643488752</v>
       </c>
       <c r="H185" t="n">
         <v>1.954327110116446</v>
@@ -5285,7 +5285,7 @@
         <v>21.43964793604143</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0006688666457826953</v>
+        <v>0.000668866645782739</v>
       </c>
       <c r="H189" t="n">
         <v>4.287929587208287</v>
@@ -5363,7 +5363,7 @@
         <v>9.800250488017191</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08109699646695523</v>
+        <v>0.08109699646695522</v>
       </c>
       <c r="H192" t="n">
         <v>1.960050097603438</v>
@@ -5467,7 +5467,7 @@
         <v>5.405407246736094</v>
       </c>
       <c r="G196" t="n">
-        <v>0.3684298320293422</v>
+        <v>0.3684298320293423</v>
       </c>
       <c r="H196" t="n">
         <v>1.081081449347219</v>
@@ -6013,7 +6013,7 @@
         <v>5.824204471551345</v>
       </c>
       <c r="G217" t="n">
-        <v>0.3237021924419201</v>
+        <v>0.3237021924419202</v>
       </c>
       <c r="H217" t="n">
         <v>1.164840894310269</v>
